--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -505,13 +505,13 @@
     <t>Every week</t>
   </si>
   <si>
-    <t>PG Online Grp Pre Scho begi Thurs</t>
-  </si>
-  <si>
-    <t>mon,tue,wed</t>
-  </si>
-  <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>15/11/2022</t>
+  </si>
+  <si>
+    <t>Personal Growth  Online Grp Pre Scho begi Thurs</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
   <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1053,7 @@
         <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
         <v>121</v>
@@ -1086,10 +1086,10 @@
         <v>162</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>59</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>140</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
@@ -1335,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>

--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -888,7 +888,7 @@
   <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14675202-A2C7-491E-8ED7-55F38303C59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_class" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="165">
   <si>
     <t>password</t>
   </si>
@@ -385,9 +386,6 @@
     <t>numofdays</t>
   </si>
   <si>
-    <t>Saturday</t>
-  </si>
-  <si>
     <t>mv class special 06/01 - 31/01</t>
   </si>
   <si>
@@ -400,9 +398,6 @@
     <t>amudhan2022@yahoo.com</t>
   </si>
   <si>
-    <t>ram2022@yahoo.com</t>
-  </si>
-  <si>
     <t>kumar2022@yahoo.com</t>
   </si>
   <si>
@@ -430,9 +425,6 @@
     <t>10:00 pm</t>
   </si>
   <si>
-    <t>11:00 pm</t>
-  </si>
-  <si>
     <t>08/10/2022</t>
   </si>
   <si>
@@ -472,9 +464,6 @@
     <t>Personal</t>
   </si>
   <si>
-    <t>D:\nurtem-test\Picturesprofile\personal.jpg</t>
-  </si>
-  <si>
     <t>D:\nurtem-test\Picturesprofile\know.jpg</t>
   </si>
   <si>
@@ -487,18 +476,12 @@
     <t>Every alternative week</t>
   </si>
   <si>
-    <t>Once in a month on</t>
-  </si>
-  <si>
     <t>Twice in a month</t>
   </si>
   <si>
     <t>PG Online Grp Element inter Sun</t>
   </si>
   <si>
-    <t>PG Online Ind Middle exp Sun</t>
-  </si>
-  <si>
     <t>PG Online Ind Adult inter Sun</t>
   </si>
   <si>
@@ -508,16 +491,31 @@
     <t>s</t>
   </si>
   <si>
-    <t>15/11/2022</t>
-  </si>
-  <si>
     <t>Personal Growth  Online Grp Pre Scho begi Thurs</t>
+  </si>
+  <si>
+    <t>16/11/2022</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat3.jpg</t>
+  </si>
+  <si>
+    <t>tutor54@nkt.com</t>
+  </si>
+  <si>
+    <t>17/11/2022</t>
+  </si>
+  <si>
+    <t>sess class special 17/11 - 31/12</t>
+  </si>
+  <si>
+    <t>Oil Painting1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
@@ -560,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,7 +573,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,6 +671,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -709,6 +723,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -884,49 +915,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" customWidth="1"/>
-    <col min="19" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="28" width="30.5703125" customWidth="1"/>
-    <col min="29" max="29" width="35.42578125" customWidth="1"/>
-    <col min="30" max="30" width="30.5703125" customWidth="1"/>
-    <col min="31" max="31" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.28515625" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" customWidth="1"/>
+    <col min="19" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.5546875" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" customWidth="1"/>
+    <col min="27" max="28" width="30.5546875" customWidth="1"/>
+    <col min="29" max="29" width="35.44140625" customWidth="1"/>
+    <col min="30" max="30" width="30.5546875" customWidth="1"/>
+    <col min="31" max="31" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.33203125" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1009,13 +1040,13 @@
         <v>108</v>
       </c>
       <c r="AB1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AC1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AD1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AE1" t="s">
         <v>3</v>
@@ -1027,33 +1058,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
         <v>121</v>
@@ -1065,25 +1096,25 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N2" t="s">
         <v>117</v>
       </c>
       <c r="O2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R2">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1101,60 +1132,60 @@
         <v>59</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="AE2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AF2">
         <v>10</v>
       </c>
       <c r="AG2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
         <v>121</v>
@@ -1166,25 +1197,25 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N3" t="s">
         <v>117</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R3">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -1199,63 +1230,63 @@
         <v>60</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD3" s="9" t="s">
         <v>144</v>
       </c>
+      <c r="AC3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="AE3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF3">
         <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
         <v>121</v>
@@ -1264,99 +1295,99 @@
         <v>25</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="N4" t="s">
         <v>117</v>
       </c>
       <c r="O4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="R4">
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="V4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AD4" s="9" t="s">
-        <v>144</v>
+      <c r="AC4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="AE4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AF4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AG4" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
         <v>121</v>
@@ -1368,13 +1399,13 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N5" t="s">
         <v>117</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1386,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -1404,25 +1435,25 @@
         <v>60</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="AE5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF5">
         <v>40</v>
@@ -1431,7 +1462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1447,7 +1478,7 @@
       <c r="E6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -1499,25 +1530,25 @@
         <v>60</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="AE6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF6">
         <v>50</v>
@@ -1526,7 +1557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1592,10 +1623,10 @@
         <v>61</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
@@ -1611,7 +1642,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1711,7 @@
         <v>74</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
@@ -1696,7 +1727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1792,7 @@
       <c r="X9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y9" s="8" t="s">
+      <c r="Y9" t="s">
         <v>74</v>
       </c>
       <c r="Z9" s="5" t="s">
@@ -1781,7 +1812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1897,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1951,7 +1982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2036,7 +2067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2121,7 +2152,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2206,7 +2237,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +2407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2461,7 +2492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2546,7 +2577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2631,7 +2662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2716,7 +2747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2801,7 +2832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2886,7 +2917,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2971,7 +3002,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3056,7 +3087,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3226,7 +3257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3311,7 +3342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -3396,7 +3427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -3481,7 +3512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3566,7 +3597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -3651,7 +3682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3736,7 +3767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -3821,7 +3852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3906,7 +3937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3991,7 +4022,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -4076,7 +4107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -4161,40 +4192,40 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Y39" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1"/>
-    <hyperlink ref="E27" r:id="rId2"/>
-    <hyperlink ref="D28" r:id="rId3"/>
-    <hyperlink ref="E28" r:id="rId4"/>
-    <hyperlink ref="E32" r:id="rId5"/>
-    <hyperlink ref="D26" r:id="rId6"/>
-    <hyperlink ref="E26" r:id="rId7"/>
-    <hyperlink ref="D29" r:id="rId8"/>
-    <hyperlink ref="E29" r:id="rId9"/>
-    <hyperlink ref="D31" r:id="rId10"/>
-    <hyperlink ref="E31" r:id="rId11"/>
-    <hyperlink ref="D33" r:id="rId12"/>
-    <hyperlink ref="E33" r:id="rId13"/>
-    <hyperlink ref="D35" r:id="rId14"/>
-    <hyperlink ref="E35" r:id="rId15"/>
-    <hyperlink ref="D37" r:id="rId16"/>
-    <hyperlink ref="E37" r:id="rId17"/>
-    <hyperlink ref="D30" r:id="rId18"/>
-    <hyperlink ref="E30" r:id="rId19"/>
-    <hyperlink ref="E34" r:id="rId20"/>
-    <hyperlink ref="E36" r:id="rId21"/>
-    <hyperlink ref="D6" r:id="rId22"/>
-    <hyperlink ref="AD2" r:id="rId23"/>
-    <hyperlink ref="AC2" r:id="rId24"/>
-    <hyperlink ref="AC3:AC6" r:id="rId25" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade"/>
-    <hyperlink ref="AD3:AD6" r:id="rId26" display="https://test.nurtem.com/Packages/singleproduct/190/data-science"/>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D29" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D33" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D35" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AD2" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AC2" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AC3:AC6" r:id="rId25" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AD3:AD6" r:id="rId26" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId27"/>

--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14675202-A2C7-491E-8ED7-55F38303C59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC7562-C850-4FAD-91C7-C3F3472076AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="166">
   <si>
     <t>password</t>
   </si>
@@ -398,9 +398,6 @@
     <t>amudhan2022@yahoo.com</t>
   </si>
   <si>
-    <t>kumar2022@yahoo.com</t>
-  </si>
-  <si>
     <t>Beginner</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>GHJ56GHJK58</t>
   </si>
   <si>
-    <t>GHJ56GHJK59</t>
-  </si>
-  <si>
     <t>GHJ56GHJK60</t>
   </si>
   <si>
@@ -467,24 +461,15 @@
     <t>D:\nurtem-test\Picturesprofile\know.jpg</t>
   </si>
   <si>
-    <t>D:\nurtem-test\Picturesprofile\60.jpg</t>
-  </si>
-  <si>
     <t>D:\nurtem-test\Picturesprofile\baseball1.jpg</t>
   </si>
   <si>
     <t>Every alternative week</t>
   </si>
   <si>
-    <t>Twice in a month</t>
-  </si>
-  <si>
     <t>PG Online Grp Element inter Sun</t>
   </si>
   <si>
-    <t>PG Online Ind Adult inter Sun</t>
-  </si>
-  <si>
     <t>Every week</t>
   </si>
   <si>
@@ -510,6 +495,24 @@
   </si>
   <si>
     <t>Oil Painting1</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>Cello Group</t>
+  </si>
+  <si>
+    <t>22/11/2022</t>
+  </si>
+  <si>
+    <t>sess class special 22/11 - 31/12</t>
   </si>
 </sst>
 </file>
@@ -919,7 +922,7 @@
   <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +930,7 @@
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="6.109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -1040,13 +1043,13 @@
         <v>108</v>
       </c>
       <c r="AB1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" t="s">
         <v>138</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>139</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>140</v>
       </c>
       <c r="AE1" t="s">
         <v>3</v>
@@ -1081,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
         <v>121</v>
@@ -1096,25 +1099,25 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
         <v>117</v>
       </c>
       <c r="O2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R2">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1132,25 +1135,25 @@
         <v>59</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AF2">
         <v>10</v>
@@ -1164,7 +1167,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
@@ -1182,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
         <v>121</v>
@@ -1197,25 +1200,25 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N3" t="s">
         <v>117</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R3">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -1230,28 +1233,28 @@
         <v>60</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF3">
         <v>10</v>
@@ -1265,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>120</v>
@@ -1283,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J4" t="s">
         <v>121</v>
@@ -1298,25 +1301,25 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
         <v>117</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R4">
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1334,31 +1337,31 @@
         <v>59</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AF4">
         <v>4</v>
       </c>
       <c r="AG4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -1366,16 +1369,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" t="s">
-        <v>120</v>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -1384,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
         <v>121</v>
@@ -1396,70 +1399,70 @@
         <v>25</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N5" t="s">
         <v>117</v>
       </c>
       <c r="O5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="1">
-        <v>18100</v>
+      <c r="Q5" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="R5">
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="V5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AF5">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AG5" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -1530,25 +1533,25 @@
         <v>60</v>
       </c>
       <c r="Y6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z6" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AF6">
         <v>50</v>
@@ -1623,10 +1626,10 @@
         <v>61</v>
       </c>
       <c r="Y7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
@@ -1711,7 +1714,7 @@
         <v>74</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
@@ -4226,8 +4229,11 @@
     <hyperlink ref="AC2" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="AC3:AC6" r:id="rId25" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="AD3:AD6" r:id="rId26" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AC5" r:id="rId27" xr:uid="{CC72AF35-4FA6-4EA7-858D-FAC23075C98B}"/>
+    <hyperlink ref="AD5" r:id="rId28" xr:uid="{ECAE592E-EE9D-4BED-9A6B-0054430950AD}"/>
+    <hyperlink ref="E5" r:id="rId29" xr:uid="{4977686F-B115-4969-91CA-DC4AB95BA76C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC7562-C850-4FAD-91C7-C3F3472076AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="add_class" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="167">
   <si>
     <t>password</t>
   </si>
@@ -383,9 +382,6 @@
     <t>bus</t>
   </si>
   <si>
-    <t>numofdays</t>
-  </si>
-  <si>
     <t>mv class special 06/01 - 31/01</t>
   </si>
   <si>
@@ -476,12 +472,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>Personal Growth  Online Grp Pre Scho begi Thurs</t>
-  </si>
-  <si>
-    <t>16/11/2022</t>
-  </si>
-  <si>
     <t>D:\test\picturesprofile1\bharat3.jpg</t>
   </si>
   <si>
@@ -513,12 +503,24 @@
   </si>
   <si>
     <t>sess class special 22/11 - 31/12</t>
+  </si>
+  <si>
+    <t>24/11/2022</t>
+  </si>
+  <si>
+    <t>swimming</t>
+  </si>
+  <si>
+    <t>Swimming Online Grp Pre Scho begi Thurs</t>
+  </si>
+  <si>
+    <t>Saturday,Wednesday,Tuesday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
@@ -674,23 +676,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -726,23 +711,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -918,49 +886,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" customWidth="1"/>
-    <col min="19" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" customWidth="1"/>
-    <col min="26" max="26" width="10.88671875" customWidth="1"/>
-    <col min="27" max="28" width="30.5546875" customWidth="1"/>
-    <col min="29" max="29" width="35.44140625" customWidth="1"/>
-    <col min="30" max="30" width="30.5546875" customWidth="1"/>
-    <col min="31" max="31" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.33203125" customWidth="1"/>
-    <col min="33" max="33" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="27" width="30.5703125" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" customWidth="1"/>
+    <col min="29" max="29" width="30.5703125" customWidth="1"/>
+    <col min="30" max="30" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1019,28 +987,28 @@
         <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="W1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="X1" t="s">
+        <v>15</v>
+      </c>
       <c r="Y1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z1" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="AA1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="AB1" t="s">
         <v>137</v>
@@ -1049,45 +1017,42 @@
         <v>138</v>
       </c>
       <c r="AD1" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="AE1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AF1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
         <v>121</v>
@@ -1099,81 +1064,78 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
         <v>117</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R2">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>151</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="T2" t="s">
+        <v>166</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF2">
+        <v>139</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE2">
         <v>10</v>
       </c>
-      <c r="AG2" t="s">
-        <v>123</v>
+      <c r="AF2" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>120</v>
@@ -1185,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
         <v>121</v>
@@ -1200,37 +1162,37 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
         <v>117</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R3">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>149</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" t="s">
         <v>116</v>
       </c>
-      <c r="V3">
-        <v>0</v>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>134</v>
@@ -1238,32 +1200,29 @@
       <c r="Y3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>136</v>
+      <c r="Z3" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF3">
+        <v>139</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE3">
         <v>10</v>
       </c>
-      <c r="AG3" t="s">
-        <v>124</v>
+      <c r="AF3" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1274,7 +1233,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>120</v>
@@ -1286,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J4" t="s">
         <v>121</v>
@@ -1301,96 +1260,93 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N4" t="s">
         <v>117</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R4">
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>151</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" t="s">
         <v>116</v>
       </c>
-      <c r="V4">
-        <v>0</v>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4" t="s">
         <v>155</v>
       </c>
-      <c r="AF4">
-        <v>4</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>158</v>
-      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
         <v>160</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" t="s">
-        <v>163</v>
       </c>
       <c r="J5" t="s">
         <v>121</v>
@@ -1402,70 +1358,67 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
         <v>117</v>
       </c>
       <c r="O5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R5">
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>151</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T5" t="s">
         <v>116</v>
       </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF5">
+        <v>139</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE5">
         <v>4</v>
       </c>
-      <c r="AG5" t="s">
-        <v>165</v>
+      <c r="AF5" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1520,47 +1473,47 @@
       <c r="S6" t="s">
         <v>31</v>
       </c>
-      <c r="U6" t="s">
+      <c r="T6" t="s">
         <v>106</v>
       </c>
-      <c r="V6">
+      <c r="U6">
         <v>60</v>
       </c>
+      <c r="V6" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="W6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>136</v>
+      <c r="Z6" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF6">
+        <v>139</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE6">
         <v>50</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AF6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1613,39 +1566,39 @@
       <c r="S7" t="s">
         <v>31</v>
       </c>
-      <c r="U7" t="s">
+      <c r="T7" t="s">
         <v>106</v>
       </c>
-      <c r="V7">
+      <c r="U7">
         <v>60</v>
       </c>
+      <c r="V7" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="W7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" t="s">
+      <c r="AD7" t="s">
         <v>113</v>
       </c>
-      <c r="AF7">
+      <c r="AE7">
         <v>60</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AF7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1698,39 +1651,39 @@
       <c r="S8" t="s">
         <v>31</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T8" t="s">
         <v>106</v>
       </c>
-      <c r="V8">
+      <c r="U8">
         <v>60</v>
       </c>
+      <c r="V8" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="W8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Z8" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="Y8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" t="s">
+      <c r="AD8" t="s">
         <v>113</v>
       </c>
-      <c r="AF8">
+      <c r="AE8">
         <v>1</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AF8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1783,39 +1736,39 @@
       <c r="S9" t="s">
         <v>31</v>
       </c>
-      <c r="U9" t="s">
+      <c r="T9" t="s">
         <v>55</v>
       </c>
-      <c r="V9">
+      <c r="U9">
         <v>60</v>
       </c>
+      <c r="V9" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="W9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="X9" t="s">
         <v>74</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>113</v>
       </c>
-      <c r="AF9">
+      <c r="AE9">
         <v>1</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1868,39 +1821,39 @@
       <c r="S10" t="s">
         <v>31</v>
       </c>
-      <c r="U10" t="s">
+      <c r="T10" t="s">
         <v>55</v>
       </c>
-      <c r="V10">
+      <c r="U10">
         <v>60</v>
       </c>
+      <c r="V10" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="W10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X10" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="X10" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>113</v>
       </c>
-      <c r="AF10">
+      <c r="AE10">
         <v>1</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1953,39 +1906,39 @@
       <c r="S11" t="s">
         <v>31</v>
       </c>
-      <c r="U11" t="s">
+      <c r="T11" t="s">
         <v>55</v>
       </c>
-      <c r="V11">
+      <c r="U11">
         <v>60</v>
       </c>
+      <c r="V11" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="W11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X11" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="X11" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>113</v>
       </c>
-      <c r="AF11">
+      <c r="AE11">
         <v>1</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2038,39 +1991,39 @@
       <c r="S12" t="s">
         <v>31</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T12" t="s">
         <v>55</v>
       </c>
-      <c r="V12">
+      <c r="U12">
         <v>60</v>
       </c>
+      <c r="V12" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="W12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X12" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="X12" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>110</v>
       </c>
-      <c r="AF12">
+      <c r="AE12">
         <v>1</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2123,39 +2076,39 @@
       <c r="S13" t="s">
         <v>31</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T13" t="s">
         <v>115</v>
       </c>
-      <c r="V13">
+      <c r="U13">
         <v>60</v>
       </c>
+      <c r="V13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="W13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="X13" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>110</v>
       </c>
-      <c r="AF13">
+      <c r="AE13">
         <v>1</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2208,39 +2161,39 @@
       <c r="S14" t="s">
         <v>31</v>
       </c>
-      <c r="U14" t="s">
+      <c r="T14" t="s">
         <v>115</v>
       </c>
-      <c r="V14">
+      <c r="U14">
         <v>60</v>
       </c>
+      <c r="V14" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="W14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="X14" s="7">
         <v>44467</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="Y14" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>110</v>
       </c>
-      <c r="AF14">
+      <c r="AE14">
         <v>1</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2293,39 +2246,39 @@
       <c r="S15" t="s">
         <v>31</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T15" t="s">
         <v>115</v>
       </c>
-      <c r="V15">
+      <c r="U15">
         <v>60</v>
       </c>
+      <c r="V15" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="W15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X15" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="X15" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>110</v>
       </c>
-      <c r="AF15">
+      <c r="AE15">
         <v>1</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2378,39 +2331,39 @@
       <c r="S16" t="s">
         <v>31</v>
       </c>
-      <c r="U16" t="s">
+      <c r="T16" t="s">
         <v>115</v>
       </c>
-      <c r="V16">
+      <c r="U16">
         <v>60</v>
       </c>
+      <c r="V16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="W16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X16" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="X16" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>110</v>
       </c>
-      <c r="AF16">
+      <c r="AE16">
         <v>1</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2463,39 +2416,39 @@
       <c r="S17" t="s">
         <v>31</v>
       </c>
-      <c r="U17" t="s">
+      <c r="T17" t="s">
         <v>116</v>
       </c>
-      <c r="V17">
+      <c r="U17">
         <v>60</v>
       </c>
+      <c r="V17" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="W17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="X17" s="7">
         <v>44467</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="Y17" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>110</v>
       </c>
-      <c r="AF17">
+      <c r="AE17">
         <v>1</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2548,39 +2501,39 @@
       <c r="S18" t="s">
         <v>31</v>
       </c>
-      <c r="U18" t="s">
+      <c r="T18" t="s">
         <v>116</v>
       </c>
-      <c r="V18">
+      <c r="U18">
         <v>60</v>
       </c>
+      <c r="V18" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="W18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X18" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="X18" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z18" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>110</v>
       </c>
-      <c r="AF18">
+      <c r="AE18">
         <v>1</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2633,39 +2586,39 @@
       <c r="S19" t="s">
         <v>31</v>
       </c>
-      <c r="U19" t="s">
+      <c r="T19" t="s">
         <v>116</v>
       </c>
-      <c r="V19">
+      <c r="U19">
         <v>60</v>
       </c>
+      <c r="V19" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="W19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="X19" s="7">
         <v>44467</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="Y19" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>110</v>
       </c>
-      <c r="AF19">
+      <c r="AE19">
         <v>1</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2718,39 +2671,39 @@
       <c r="S20" t="s">
         <v>31</v>
       </c>
-      <c r="U20" t="s">
+      <c r="T20" t="s">
         <v>116</v>
       </c>
-      <c r="V20">
+      <c r="U20">
         <v>60</v>
       </c>
+      <c r="V20" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="W20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X20" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="X20" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z20" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>110</v>
       </c>
-      <c r="AF20">
+      <c r="AE20">
         <v>1</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2803,39 +2756,39 @@
       <c r="S21" t="s">
         <v>31</v>
       </c>
-      <c r="U21" t="s">
+      <c r="T21" t="s">
         <v>116</v>
       </c>
-      <c r="V21">
+      <c r="U21">
         <v>60</v>
       </c>
+      <c r="V21" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="W21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X21" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="X21" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z21" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>110</v>
       </c>
-      <c r="AF21">
+      <c r="AE21">
         <v>1</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2888,39 +2841,39 @@
       <c r="S22" t="s">
         <v>31</v>
       </c>
-      <c r="U22" t="s">
+      <c r="T22" t="s">
         <v>116</v>
       </c>
-      <c r="V22">
+      <c r="U22">
         <v>60</v>
       </c>
+      <c r="V22" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="W22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X22" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="X22" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z22" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>110</v>
       </c>
-      <c r="AF22">
+      <c r="AE22">
         <v>1</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2973,39 +2926,39 @@
       <c r="S23" t="s">
         <v>31</v>
       </c>
-      <c r="U23" t="s">
+      <c r="T23" t="s">
         <v>116</v>
       </c>
-      <c r="V23">
+      <c r="U23">
         <v>60</v>
       </c>
+      <c r="V23" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="W23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X23" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="X23" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z23" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>110</v>
       </c>
-      <c r="AF23">
+      <c r="AE23">
         <v>1</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3058,39 +3011,39 @@
       <c r="S24" t="s">
         <v>31</v>
       </c>
-      <c r="U24" t="s">
+      <c r="T24" t="s">
         <v>82</v>
       </c>
-      <c r="V24">
+      <c r="U24">
         <v>60</v>
       </c>
+      <c r="V24" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="W24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X24" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="X24" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z24" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>110</v>
       </c>
-      <c r="AF24">
+      <c r="AE24">
         <v>1</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3143,39 +3096,39 @@
       <c r="S25" t="s">
         <v>31</v>
       </c>
-      <c r="U25" t="s">
+      <c r="T25" t="s">
         <v>82</v>
       </c>
-      <c r="V25">
+      <c r="U25">
         <v>60</v>
       </c>
+      <c r="V25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="W25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X25" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="X25" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z25" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>110</v>
       </c>
-      <c r="AF25">
+      <c r="AE25">
         <v>1</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3228,39 +3181,39 @@
       <c r="S26" t="s">
         <v>31</v>
       </c>
-      <c r="U26" t="s">
+      <c r="T26" t="s">
         <v>82</v>
       </c>
-      <c r="V26">
+      <c r="U26">
         <v>60</v>
       </c>
+      <c r="V26" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="W26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="X26" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="X26" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z26" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>110</v>
       </c>
-      <c r="AF26">
+      <c r="AE26">
         <v>1</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3313,39 +3266,39 @@
       <c r="S27" t="s">
         <v>31</v>
       </c>
-      <c r="U27" t="s">
+      <c r="T27" t="s">
         <v>82</v>
       </c>
-      <c r="V27">
+      <c r="U27">
         <v>60</v>
       </c>
+      <c r="V27" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="W27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X27" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="X27" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z27" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>110</v>
       </c>
-      <c r="AF27">
+      <c r="AE27">
         <v>1</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -3398,39 +3351,39 @@
       <c r="S28" t="s">
         <v>31</v>
       </c>
-      <c r="U28" t="s">
+      <c r="T28" t="s">
         <v>82</v>
       </c>
-      <c r="V28">
+      <c r="U28">
         <v>60</v>
       </c>
+      <c r="V28" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="W28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X28" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="X28" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z28" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" t="s">
+      <c r="AD28" t="s">
         <v>110</v>
       </c>
-      <c r="AF28">
+      <c r="AE28">
         <v>1</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AF28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -3483,39 +3436,39 @@
       <c r="S29" t="s">
         <v>31</v>
       </c>
-      <c r="U29" t="s">
+      <c r="T29" t="s">
         <v>82</v>
       </c>
-      <c r="V29">
+      <c r="U29">
         <v>60</v>
       </c>
+      <c r="V29" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="W29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X29" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="X29" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z29" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" t="s">
+      <c r="AD29" t="s">
         <v>110</v>
       </c>
-      <c r="AF29">
+      <c r="AE29">
         <v>1</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AF29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3568,39 +3521,39 @@
       <c r="S30" t="s">
         <v>31</v>
       </c>
-      <c r="U30" t="s">
+      <c r="T30" t="s">
         <v>82</v>
       </c>
-      <c r="V30">
+      <c r="U30">
         <v>60</v>
       </c>
+      <c r="V30" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="W30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X30" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="X30" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z30" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" t="s">
+      <c r="AD30" t="s">
         <v>110</v>
       </c>
-      <c r="AF30">
+      <c r="AE30">
         <v>1</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AF30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -3653,39 +3606,39 @@
       <c r="S31" t="s">
         <v>31</v>
       </c>
-      <c r="U31" t="s">
+      <c r="T31" t="s">
         <v>82</v>
       </c>
-      <c r="V31">
+      <c r="U31">
         <v>60</v>
       </c>
+      <c r="V31" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="W31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X31" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="X31" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z31" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" t="s">
+      <c r="AD31" t="s">
         <v>110</v>
       </c>
-      <c r="AF31">
+      <c r="AE31">
         <v>1</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AF31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3738,39 +3691,39 @@
       <c r="S32" t="s">
         <v>31</v>
       </c>
-      <c r="U32" t="s">
+      <c r="T32" t="s">
         <v>105</v>
       </c>
-      <c r="V32">
+      <c r="U32">
         <v>60</v>
       </c>
+      <c r="V32" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="W32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X32" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="X32" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z32" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" t="s">
+      <c r="AD32" t="s">
         <v>110</v>
       </c>
-      <c r="AF32">
+      <c r="AE32">
         <v>1</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AF32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -3823,39 +3776,39 @@
       <c r="S33" t="s">
         <v>31</v>
       </c>
-      <c r="U33" t="s">
+      <c r="T33" t="s">
         <v>105</v>
       </c>
-      <c r="V33">
+      <c r="U33">
         <v>60</v>
       </c>
+      <c r="V33" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="W33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X33" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="X33" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z33" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" t="s">
+      <c r="AD33" t="s">
         <v>110</v>
       </c>
-      <c r="AF33">
+      <c r="AE33">
         <v>1</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AF33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3908,39 +3861,39 @@
       <c r="S34" t="s">
         <v>31</v>
       </c>
-      <c r="U34" t="s">
+      <c r="T34" t="s">
         <v>105</v>
       </c>
-      <c r="V34">
+      <c r="U34">
         <v>60</v>
       </c>
+      <c r="V34" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="W34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X34" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="X34" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z34" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" t="s">
+      <c r="AD34" t="s">
         <v>110</v>
       </c>
-      <c r="AF34">
+      <c r="AE34">
         <v>1</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AF34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3993,39 +3946,39 @@
       <c r="S35" t="s">
         <v>31</v>
       </c>
-      <c r="U35" t="s">
+      <c r="T35" t="s">
         <v>105</v>
       </c>
-      <c r="V35">
+      <c r="U35">
         <v>60</v>
       </c>
+      <c r="V35" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="W35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X35" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="X35" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z35" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" t="s">
+      <c r="AD35" t="s">
         <v>110</v>
       </c>
-      <c r="AF35">
+      <c r="AE35">
         <v>1</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AF35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -4078,39 +4031,39 @@
       <c r="S36" t="s">
         <v>31</v>
       </c>
-      <c r="U36" t="s">
+      <c r="T36" t="s">
         <v>105</v>
       </c>
-      <c r="V36">
+      <c r="U36">
         <v>60</v>
       </c>
+      <c r="V36" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="W36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X36" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="X36" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z36" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" t="s">
+      <c r="AD36" t="s">
         <v>110</v>
       </c>
-      <c r="AF36">
+      <c r="AE36">
         <v>1</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AF36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -4163,75 +4116,75 @@
       <c r="S37" t="s">
         <v>31</v>
       </c>
-      <c r="U37" t="s">
+      <c r="T37" t="s">
         <v>105</v>
       </c>
-      <c r="V37">
+      <c r="U37">
         <v>60</v>
       </c>
+      <c r="V37" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="W37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X37" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="X37" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z37" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" t="s">
+      <c r="AD37" t="s">
         <v>110</v>
       </c>
-      <c r="AF37">
+      <c r="AE37">
         <v>1</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AF37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="Y38" s="5"/>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="Y39" s="5"/>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X39" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D29" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D33" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D35" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AD2" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AC2" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AC3:AC6" r:id="rId25" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AD3:AD6" r:id="rId26" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AC5" r:id="rId27" xr:uid="{CC72AF35-4FA6-4EA7-858D-FAC23075C98B}"/>
-    <hyperlink ref="AD5" r:id="rId28" xr:uid="{ECAE592E-EE9D-4BED-9A6B-0054430950AD}"/>
-    <hyperlink ref="E5" r:id="rId29" xr:uid="{4977686F-B115-4969-91CA-DC4AB95BA76C}"/>
+    <hyperlink ref="D27" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId2"/>
+    <hyperlink ref="D28" r:id="rId3"/>
+    <hyperlink ref="E28" r:id="rId4"/>
+    <hyperlink ref="E32" r:id="rId5"/>
+    <hyperlink ref="D26" r:id="rId6"/>
+    <hyperlink ref="E26" r:id="rId7"/>
+    <hyperlink ref="D29" r:id="rId8"/>
+    <hyperlink ref="E29" r:id="rId9"/>
+    <hyperlink ref="D31" r:id="rId10"/>
+    <hyperlink ref="E31" r:id="rId11"/>
+    <hyperlink ref="D33" r:id="rId12"/>
+    <hyperlink ref="E33" r:id="rId13"/>
+    <hyperlink ref="D35" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="D37" r:id="rId16"/>
+    <hyperlink ref="E37" r:id="rId17"/>
+    <hyperlink ref="D30" r:id="rId18"/>
+    <hyperlink ref="E30" r:id="rId19"/>
+    <hyperlink ref="E34" r:id="rId20"/>
+    <hyperlink ref="E36" r:id="rId21"/>
+    <hyperlink ref="D6" r:id="rId22"/>
+    <hyperlink ref="AC2" r:id="rId23"/>
+    <hyperlink ref="AB2" r:id="rId24"/>
+    <hyperlink ref="AB3:AB6" r:id="rId25" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade"/>
+    <hyperlink ref="AC3:AC6" r:id="rId26" display="https://test.nurtem.com/Packages/singleproduct/190/data-science"/>
+    <hyperlink ref="AB5" r:id="rId27"/>
+    <hyperlink ref="AC5" r:id="rId28"/>
+    <hyperlink ref="E5" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId30"/>

--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02233390-22E8-43A0-98F8-739BE7FB37CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_class" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="176">
   <si>
     <t>password</t>
   </si>
@@ -127,69 +137,6 @@
     <t>Geetanjali Tuesday 6:00</t>
   </si>
   <si>
-    <t>Geetanjali Tuesday 7:00</t>
-  </si>
-  <si>
-    <t>Geetanjali Wednesday 4.00</t>
-  </si>
-  <si>
-    <t>Geetanjali Wednesday 5:30</t>
-  </si>
-  <si>
-    <t>Geetanjali Wednesday 6:15</t>
-  </si>
-  <si>
-    <t>Geetanjali Wednesday 7:00</t>
-  </si>
-  <si>
-    <t>Geetanjali Thursday 3:30</t>
-  </si>
-  <si>
-    <t>Geetanjali Thursday 5:00</t>
-  </si>
-  <si>
-    <t>Geetanjali Thursday 6:00</t>
-  </si>
-  <si>
-    <t>Geetanjali Thursday 7:00</t>
-  </si>
-  <si>
-    <t>Geetanjali Friday 2:30</t>
-  </si>
-  <si>
-    <t>Geetanjali Friday 3:45</t>
-  </si>
-  <si>
-    <t>Geetanjali Friday 4:30</t>
-  </si>
-  <si>
-    <t>Geetanjali Friday 5:00</t>
-  </si>
-  <si>
-    <t>Geetanjali Friday 6:00</t>
-  </si>
-  <si>
-    <t>Geetanjali Friday 7:00</t>
-  </si>
-  <si>
-    <t>Geetanjali Friday 7:30</t>
-  </si>
-  <si>
-    <t>Geetanjali Saturday 5:30</t>
-  </si>
-  <si>
-    <t>Geetanjali Saturday 6:30</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>02:30 pm</t>
-  </si>
-  <si>
-    <t>03:30 pm</t>
-  </si>
-  <si>
     <t>04:00 pm</t>
   </si>
   <si>
@@ -205,39 +152,9 @@
     <t>08:00 pm</t>
   </si>
   <si>
-    <t>05:30 pm</t>
-  </si>
-  <si>
-    <t>06:15 pm</t>
-  </si>
-  <si>
-    <t>03:45 pm</t>
-  </si>
-  <si>
-    <t>04:30 pm</t>
-  </si>
-  <si>
-    <t>07:30 pm</t>
-  </si>
-  <si>
-    <t>06:30 pm</t>
-  </si>
-  <si>
-    <t>04:45 pm</t>
-  </si>
-  <si>
-    <t>08:30 pm</t>
-  </si>
-  <si>
-    <t>Carnatic Vocal music is the classical music of Southern India.</t>
-  </si>
-  <si>
     <t>carnatic</t>
   </si>
   <si>
-    <t>07:15 pm</t>
-  </si>
-  <si>
     <t>20/09/2021</t>
   </si>
   <si>
@@ -256,21 +173,9 @@
     <t>basketball</t>
   </si>
   <si>
-    <t>Saturday David 8:30</t>
-  </si>
-  <si>
-    <t>In-Person</t>
-  </si>
-  <si>
     <t>saturday</t>
   </si>
   <si>
-    <t>08:30 a</t>
-  </si>
-  <si>
-    <t>09:30 a</t>
-  </si>
-  <si>
     <t>The intent of this course is help anyone improve their basketball skills by going through a series of basketball drills.</t>
   </si>
   <si>
@@ -280,9 +185,6 @@
     <t>Dillon@1234</t>
   </si>
   <si>
-    <t>Saturday Dillon 8:30</t>
-  </si>
-  <si>
     <t>08:30 am</t>
   </si>
   <si>
@@ -349,30 +251,15 @@
     <t>D:\nurtem\Picturesprofile\mirudhangam.jpg</t>
   </si>
   <si>
-    <t>Baseball</t>
-  </si>
-  <si>
-    <t>baseball teatcher</t>
-  </si>
-  <si>
-    <t>D:\nurtem\Picturesprofile\baseball1.jpg</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>thursday</t>
-  </si>
-  <si>
     <t>friday</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>vijay.n@gmail.com</t>
-  </si>
-  <si>
     <t>tutortype</t>
   </si>
   <si>
@@ -448,84 +335,233 @@
     <t>GHJ56GHJK58</t>
   </si>
   <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>D:\nurtem-test\Picturesprofile\know.jpg</t>
+  </si>
+  <si>
+    <t>Every alternative week</t>
+  </si>
+  <si>
+    <t>PG Online Grp Element inter Sun</t>
+  </si>
+  <si>
+    <t>Every week</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat3.jpg</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>24/11/2022</t>
+  </si>
+  <si>
+    <t>swimming</t>
+  </si>
+  <si>
+    <t>Swimming Online Grp Pre Scho begi Thurs</t>
+  </si>
+  <si>
+    <t>Saturday,Wednesday,Tuesday</t>
+  </si>
+  <si>
+    <t>Cello Group3</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>26/11/2022</t>
+  </si>
+  <si>
+    <t>sess class special 26/11 - 31/12</t>
+  </si>
+  <si>
+    <t>Clarinet</t>
+  </si>
+  <si>
+    <t>PHP session 2</t>
+  </si>
+  <si>
+    <t>tutor53@nkt.com</t>
+  </si>
+  <si>
+    <t>PHP session 3</t>
+  </si>
+  <si>
+    <t>01/11/2022</t>
+  </si>
+  <si>
+    <t>tutor55@nkt.com</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>paint sess 1</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>jimper</t>
+  </si>
+  <si>
+    <t>29/11/2022</t>
+  </si>
+  <si>
+    <t>wednesday</t>
+  </si>
+  <si>
+    <t>sess class special 29/11 - 31/12</t>
+  </si>
+  <si>
+    <t>paint sess 2</t>
+  </si>
+  <si>
+    <t>paint sess 3</t>
+  </si>
+  <si>
+    <t>paint sess 4</t>
+  </si>
+  <si>
+    <t>paint var 5</t>
+  </si>
+  <si>
+    <t>paint var 6</t>
+  </si>
+  <si>
+    <t>paint var 7</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK59</t>
+  </si>
+  <si>
     <t>GHJ56GHJK60</t>
   </si>
   <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>D:\nurtem-test\Picturesprofile\know.jpg</t>
-  </si>
-  <si>
-    <t>D:\nurtem-test\Picturesprofile\baseball1.jpg</t>
-  </si>
-  <si>
-    <t>Every alternative week</t>
-  </si>
-  <si>
-    <t>PG Online Grp Element inter Sun</t>
-  </si>
-  <si>
-    <t>Every week</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>D:\test\picturesprofile1\bharat3.jpg</t>
-  </si>
-  <si>
-    <t>tutor54@nkt.com</t>
-  </si>
-  <si>
-    <t>17/11/2022</t>
-  </si>
-  <si>
-    <t>sess class special 17/11 - 31/12</t>
-  </si>
-  <si>
-    <t>Oil Painting1</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>srinivasesaivanan6324@gmail.com</t>
-  </si>
-  <si>
-    <t>Cello</t>
-  </si>
-  <si>
-    <t>Cello Group</t>
-  </si>
-  <si>
-    <t>22/11/2022</t>
-  </si>
-  <si>
-    <t>sess class special 22/11 - 31/12</t>
-  </si>
-  <si>
-    <t>24/11/2022</t>
-  </si>
-  <si>
-    <t>swimming</t>
-  </si>
-  <si>
-    <t>Swimming Online Grp Pre Scho begi Thurs</t>
-  </si>
-  <si>
-    <t>Saturday,Wednesday,Tuesday</t>
+    <t>GHJ56GHJK61</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK62</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK63</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK64</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK65</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK66</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK67</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK68</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK69</t>
+  </si>
+  <si>
+    <t>paint var 8</t>
+  </si>
+  <si>
+    <t>paint var 9</t>
+  </si>
+  <si>
+    <t>paint var 10</t>
+  </si>
+  <si>
+    <t>paint var 11</t>
+  </si>
+  <si>
+    <t>paint sess 12</t>
+  </si>
+  <si>
+    <t>paint sess 13</t>
+  </si>
+  <si>
+    <t>paint sess 14</t>
+  </si>
+  <si>
+    <t>paint sess 15</t>
+  </si>
+  <si>
+    <t>paint sess 16</t>
+  </si>
+  <si>
+    <t>paint sess 17</t>
+  </si>
+  <si>
+    <t>paint sess 18</t>
+  </si>
+  <si>
+    <t>paint sess 19</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK70</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK71</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK72</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK73</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK74</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK75</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK76</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK77</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK78</t>
+  </si>
+  <si>
+    <t>var class special 29/11 - 31/12</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat1.jpg</t>
+  </si>
+  <si>
+    <t>paint var 20</t>
+  </si>
+  <si>
+    <t>01/12/2022</t>
+  </si>
+  <si>
+    <t>var class special 01/12 - 31/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +573,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -577,7 +619,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,6 +717,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -711,6 +769,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -886,49 +961,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="27" width="30.5703125" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" customWidth="1"/>
-    <col min="29" max="29" width="30.5703125" customWidth="1"/>
-    <col min="30" max="30" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.28515625" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="29.88671875" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1"/>
+    <col min="26" max="27" width="30.5546875" customWidth="1"/>
+    <col min="28" max="28" width="35.44140625" customWidth="1"/>
+    <col min="29" max="29" width="30.5546875" customWidth="1"/>
+    <col min="30" max="30" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.33203125" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -948,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -957,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1005,16 +1080,16 @@
         <v>16</v>
       </c>
       <c r="Z1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AA1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AB1" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AC1" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AD1" t="s">
         <v>3</v>
@@ -1026,36 +1101,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="9">
+        <v>79</v>
+      </c>
+      <c r="F2" s="8">
         <v>2</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1064,96 +1139,96 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="R2">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="T2" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>139</v>
+        <v>100</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="AD2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="AE2">
         <v>10</v>
       </c>
       <c r="AF2" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="9">
+        <v>79</v>
+      </c>
+      <c r="F3" s="8">
         <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -1162,96 +1237,96 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="R3">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="T3" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>139</v>
+        <v>101</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="AD3" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="AE3">
         <v>10</v>
       </c>
       <c r="AF3" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>145</v>
-      </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -1260,96 +1335,96 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="R4">
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="T4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>139</v>
+        <v>102</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="AD4" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="AE4">
         <v>4</v>
       </c>
       <c r="AF4" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="9">
+        <v>109</v>
+      </c>
+      <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -1358,93 +1433,96 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="R5">
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="T5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>139</v>
+        <v>102</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="AD5" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="AE5">
         <v>4</v>
       </c>
       <c r="AF5" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="9">
+        <v>122</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -1453,88 +1531,90 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R6">
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="U6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>139</v>
+        <v>102</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="AD6" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AE6">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
@@ -1549,80 +1629,93 @@
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R7">
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T7" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="U7">
         <v>60</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AE7">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>127</v>
+      </c>
+      <c r="J8" t="s">
+        <v>128</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -1634,80 +1727,93 @@
         <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R8">
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="U8">
         <v>60</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD8" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>133</v>
+      </c>
+      <c r="J9" t="s">
+        <v>128</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -1719,80 +1825,93 @@
         <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R9">
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="U9">
         <v>60</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>134</v>
+      </c>
+      <c r="J10" t="s">
+        <v>128</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -1804,80 +1923,93 @@
         <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R10">
         <v>12</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="U10">
         <v>60</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF10" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>135</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -1889,80 +2021,93 @@
         <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R11">
         <v>12</v>
       </c>
       <c r="S11" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="U11">
         <v>60</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="W11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="AA11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -1977,77 +2122,90 @@
         <v>33</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R12">
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="U12">
         <v>60</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD12" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -2062,77 +2220,90 @@
         <v>33</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T13" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="U13">
         <v>60</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF13" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -2147,77 +2318,90 @@
         <v>33</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R14">
         <v>12</v>
       </c>
       <c r="S14" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="U14">
         <v>60</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X14" s="7">
-        <v>44467</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD14" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
       </c>
       <c r="K15" t="s">
         <v>25</v>
@@ -2229,80 +2413,93 @@
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R15">
         <v>12</v>
       </c>
       <c r="S15" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T15" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="U15">
         <v>60</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF15" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>128</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
@@ -2314,80 +2511,93 @@
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R16">
         <v>12</v>
       </c>
       <c r="S16" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T16" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="U16">
         <v>60</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>
@@ -2399,80 +2609,93 @@
         <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O17" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R17">
         <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T17" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="U17">
         <v>60</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X17" s="7">
-        <v>44467</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>128</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
@@ -2484,80 +2707,93 @@
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R18">
         <v>12</v>
       </c>
       <c r="S18" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T18" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="U18">
         <v>60</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD18" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF18" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>128</v>
       </c>
       <c r="K19" t="s">
         <v>25</v>
@@ -2569,80 +2805,93 @@
         <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R19">
         <v>12</v>
       </c>
       <c r="S19" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T19" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X19" s="7">
-        <v>44467</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF19" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>128</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
@@ -2654,80 +2903,93 @@
         <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O20" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R20">
         <v>12</v>
       </c>
       <c r="S20" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T20" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="U20">
         <v>60</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD20" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
@@ -2739,80 +3001,93 @@
         <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R21">
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T21" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="U21">
         <v>60</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD21" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF21" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>157</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
@@ -2824,80 +3099,93 @@
         <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O22" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R22">
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T22" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="U22">
         <v>60</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>158</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
@@ -2909,80 +3197,93 @@
         <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R23">
         <v>12</v>
       </c>
       <c r="S23" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T23" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="U23">
         <v>60</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD23" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>159</v>
+      </c>
+      <c r="J24" t="s">
+        <v>128</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
@@ -2994,80 +3295,93 @@
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R24">
         <v>12</v>
       </c>
       <c r="S24" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T24" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="U24">
         <v>60</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC24" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>160</v>
+      </c>
+      <c r="J25" t="s">
+        <v>128</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
@@ -3079,80 +3393,93 @@
         <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O25" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R25">
         <v>12</v>
       </c>
       <c r="S25" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T25" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="U25">
         <v>60</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>161</v>
+      </c>
+      <c r="J26" t="s">
+        <v>128</v>
       </c>
       <c r="K26" t="s">
         <v>25</v>
@@ -3164,80 +3491,93 @@
         <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O26" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R26">
         <v>12</v>
       </c>
       <c r="S26" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T26" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="U26">
         <v>60</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
+        <v>27</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>173</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
@@ -3249,80 +3589,90 @@
         <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R27">
         <v>12</v>
       </c>
       <c r="S27" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="T27" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="U27">
         <v>60</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AD27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
         <v>25</v>
@@ -3352,62 +3702,64 @@
         <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="U28">
         <v>60</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE28">
         <v>1</v>
       </c>
       <c r="AF28" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
         <v>25</v>
@@ -3437,62 +3789,64 @@
         <v>31</v>
       </c>
       <c r="T29" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="U29">
         <v>60</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y29" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE29">
         <v>1</v>
       </c>
       <c r="AF29" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="K30" t="s">
         <v>25</v>
@@ -3522,19 +3876,19 @@
         <v>31</v>
       </c>
       <c r="T30" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="U30">
         <v>60</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>32</v>
@@ -3544,40 +3898,42 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE30">
         <v>1</v>
       </c>
       <c r="AF30" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -3607,19 +3963,19 @@
         <v>31</v>
       </c>
       <c r="T31" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="U31">
         <v>60</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y31" s="5" t="s">
         <v>32</v>
@@ -3629,40 +3985,42 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
       <c r="AF31" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="K32" t="s">
         <v>25</v>
@@ -3692,19 +4050,19 @@
         <v>31</v>
       </c>
       <c r="T32" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="U32">
         <v>60</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y32" s="5" t="s">
         <v>32</v>
@@ -3714,40 +4072,42 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE32">
         <v>1</v>
       </c>
       <c r="AF32" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
         <v>25</v>
@@ -3777,19 +4137,19 @@
         <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="U33">
         <v>60</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y33" s="5" t="s">
         <v>32</v>
@@ -3799,40 +4159,42 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE33">
         <v>1</v>
       </c>
       <c r="AF33" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="K34" t="s">
         <v>25</v>
@@ -3862,19 +4224,19 @@
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="U34">
         <v>60</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y34" s="5" t="s">
         <v>32</v>
@@ -3884,40 +4246,42 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE34">
         <v>1</v>
       </c>
       <c r="AF34" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="K35" t="s">
         <v>25</v>
@@ -3947,19 +4311,19 @@
         <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="U35">
         <v>60</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y35" s="5" t="s">
         <v>32</v>
@@ -3969,40 +4333,42 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE35">
         <v>1</v>
       </c>
       <c r="AF35" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="K36" t="s">
         <v>25</v>
@@ -4032,19 +4398,19 @@
         <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="U36">
         <v>60</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y36" s="5" t="s">
         <v>32</v>
@@ -4054,40 +4420,42 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE36">
         <v>1</v>
       </c>
       <c r="AF36" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
         <v>25</v>
@@ -4117,19 +4485,19 @@
         <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="U37">
         <v>60</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Y37" s="5" t="s">
         <v>32</v>
@@ -4139,54 +4507,80 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AE37">
         <v>1</v>
       </c>
       <c r="AF37" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="X39" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1"/>
-    <hyperlink ref="E27" r:id="rId2"/>
-    <hyperlink ref="D28" r:id="rId3"/>
-    <hyperlink ref="E28" r:id="rId4"/>
-    <hyperlink ref="E32" r:id="rId5"/>
-    <hyperlink ref="D26" r:id="rId6"/>
-    <hyperlink ref="E26" r:id="rId7"/>
-    <hyperlink ref="D29" r:id="rId8"/>
-    <hyperlink ref="E29" r:id="rId9"/>
-    <hyperlink ref="D31" r:id="rId10"/>
-    <hyperlink ref="E31" r:id="rId11"/>
-    <hyperlink ref="D33" r:id="rId12"/>
-    <hyperlink ref="E33" r:id="rId13"/>
-    <hyperlink ref="D35" r:id="rId14"/>
-    <hyperlink ref="E35" r:id="rId15"/>
-    <hyperlink ref="D37" r:id="rId16"/>
-    <hyperlink ref="E37" r:id="rId17"/>
-    <hyperlink ref="D30" r:id="rId18"/>
-    <hyperlink ref="E30" r:id="rId19"/>
-    <hyperlink ref="E34" r:id="rId20"/>
-    <hyperlink ref="E36" r:id="rId21"/>
-    <hyperlink ref="D6" r:id="rId22"/>
-    <hyperlink ref="AC2" r:id="rId23"/>
-    <hyperlink ref="AB2" r:id="rId24"/>
-    <hyperlink ref="AB3:AB6" r:id="rId25" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade"/>
-    <hyperlink ref="AC3:AC6" r:id="rId26" display="https://test.nurtem.com/Packages/singleproduct/190/data-science"/>
-    <hyperlink ref="AB5" r:id="rId27"/>
-    <hyperlink ref="AC5" r:id="rId28"/>
-    <hyperlink ref="E5" r:id="rId29"/>
+    <hyperlink ref="D28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E29" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D30" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E34" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AC2" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AB2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AB3:AB6" r:id="rId20" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AC3:AC6" r:id="rId21" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AB5" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AC5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E5" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D4" r:id="rId25" xr:uid="{EB5C1933-A693-4A7B-834C-1E0340C4F4FD}"/>
+    <hyperlink ref="AB6" r:id="rId26" xr:uid="{A168F9FD-2018-4ED2-A2F1-50BD9FE3602D}"/>
+    <hyperlink ref="AC6" r:id="rId27" xr:uid="{FEEAB1EA-42A3-41A6-89A6-D30F74365A0D}"/>
+    <hyperlink ref="D6" r:id="rId28" xr:uid="{32B004B3-8822-435A-9F5C-4AB8DF713462}"/>
+    <hyperlink ref="D8" r:id="rId29" xr:uid="{702E2787-F624-4680-9DC6-D2050EAFE594}"/>
+    <hyperlink ref="D9:D14" r:id="rId30" display="tutor55@nkt.com" xr:uid="{281645EC-A69B-4AC0-8663-DC29178D29D5}"/>
+    <hyperlink ref="AB7:AB17" r:id="rId31" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{F18B90ED-0A21-4C53-A5AC-91EEE8564E62}"/>
+    <hyperlink ref="AC7:AC17" r:id="rId32" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{B93870E1-4378-490D-8C0B-0DD8CF751077}"/>
+    <hyperlink ref="D15:D26" r:id="rId33" display="tutor55@nkt.com" xr:uid="{E9BB2F3B-3F13-4E18-A366-8C6440A876A9}"/>
+    <hyperlink ref="AB18" r:id="rId34" xr:uid="{9EC56171-560B-4BA4-98C1-1CE40E0FED81}"/>
+    <hyperlink ref="AB19" r:id="rId35" xr:uid="{078900D6-4B13-4BDA-BFB3-1C5E2AD31948}"/>
+    <hyperlink ref="AB20" r:id="rId36" xr:uid="{9AEC5DC4-7BC0-42F8-8440-7C87CF12D237}"/>
+    <hyperlink ref="AB21" r:id="rId37" xr:uid="{83E21E58-36B9-4CF7-86A2-E99E7B5AB79F}"/>
+    <hyperlink ref="AB22" r:id="rId38" xr:uid="{79C38FDC-014F-4466-8D8F-05D852C2F845}"/>
+    <hyperlink ref="AB23" r:id="rId39" xr:uid="{A495C8D5-2F47-4CEC-A4B9-55A5926A9F81}"/>
+    <hyperlink ref="AB24" r:id="rId40" xr:uid="{96005754-A607-4A74-94CF-AA9270154A8E}"/>
+    <hyperlink ref="AB25" r:id="rId41" xr:uid="{1E1B5F98-EC54-4B1B-8C0D-D15E6372FA10}"/>
+    <hyperlink ref="AB26" r:id="rId42" xr:uid="{0B9A8CA5-80DE-4D60-AB88-32E5BB69CAF4}"/>
+    <hyperlink ref="AC18" r:id="rId43" xr:uid="{A21F30C5-80FE-4DF3-9F1D-241D8BB1BFF4}"/>
+    <hyperlink ref="AC19" r:id="rId44" xr:uid="{0501E205-A1D5-4617-B18E-CB65CC0D768E}"/>
+    <hyperlink ref="AC20" r:id="rId45" xr:uid="{7771F8C8-735F-4850-9545-0F032E643F31}"/>
+    <hyperlink ref="AC21" r:id="rId46" xr:uid="{84297468-F93D-4596-B305-9589BC037597}"/>
+    <hyperlink ref="AC22" r:id="rId47" xr:uid="{8B8B5F4B-EC4C-452D-B0D7-114A4DCFC798}"/>
+    <hyperlink ref="AC23" r:id="rId48" xr:uid="{BDEED673-4503-412E-BA98-A2C45E1660DC}"/>
+    <hyperlink ref="AC24" r:id="rId49" xr:uid="{D767F43D-6586-4AFB-A54C-57593C7AF4FA}"/>
+    <hyperlink ref="AC25" r:id="rId50" xr:uid="{58D78D26-529A-40D3-899A-CBB7C3926060}"/>
+    <hyperlink ref="AC26" r:id="rId51" xr:uid="{FB41551C-EC23-4427-901C-00C49F89F2A2}"/>
+    <hyperlink ref="AB27" r:id="rId52" xr:uid="{D8BCB0C1-DF75-4E29-B93B-EF968D7E3080}"/>
+    <hyperlink ref="AC27" r:id="rId53" xr:uid="{9BE37098-3F2D-4867-8485-F3892A399D4C}"/>
+    <hyperlink ref="D27" r:id="rId54" xr:uid="{464BB1B6-6CAC-4EAC-A8A3-465A5377101D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02233390-22E8-43A0-98F8-739BE7FB37CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F370D7-3CFF-4FDE-90F0-FE427576403B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="179">
   <si>
     <t>password</t>
   </si>
@@ -248,9 +248,6 @@
     <t>https://support.zoom.us/hc/en-us/articles/201362843-What-is-Personal-Meeting-ID-PMI-and-Personal-Link-</t>
   </si>
   <si>
-    <t>D:\nurtem\Picturesprofile\mirudhangam.jpg</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>Every week</t>
   </si>
   <si>
-    <t>D:\test\picturesprofile1\bharat3.jpg</t>
-  </si>
-  <si>
     <t>Test@1234</t>
   </si>
   <si>
@@ -542,16 +536,31 @@
     <t>var class special 29/11 - 31/12</t>
   </si>
   <si>
-    <t>D:\test\picturesprofile1\bharat1.jpg</t>
-  </si>
-  <si>
     <t>paint var 20</t>
   </si>
   <si>
-    <t>01/12/2022</t>
-  </si>
-  <si>
     <t>var class special 01/12 - 31/12</t>
+  </si>
+  <si>
+    <t>D:\nurtem\test\picturesprofile1\bharat3.jpg</t>
+  </si>
+  <si>
+    <t>07/12/2022</t>
+  </si>
+  <si>
+    <t>next_session</t>
+  </si>
+  <si>
+    <t>Wednesday | 7:00 pm to 8:00 pm</t>
+  </si>
+  <si>
+    <t>tutor_name</t>
+  </si>
+  <si>
+    <t>Jaya S.</t>
+  </si>
+  <si>
+    <t>Class_type</t>
   </si>
 </sst>
 </file>
@@ -962,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,7 +1012,7 @@
     <col min="32" max="32" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1083,13 +1092,13 @@
         <v>72</v>
       </c>
       <c r="AA1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>96</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>97</v>
       </c>
       <c r="AD1" t="s">
         <v>3</v>
@@ -1100,22 +1109,31 @@
       <c r="AF1" t="s">
         <v>5</v>
       </c>
+      <c r="AG1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="8">
         <v>2</v>
@@ -1124,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1139,28 +1157,28 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R2">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1172,63 +1190,63 @@
         <v>38</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD2" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE2">
         <v>10</v>
       </c>
       <c r="AF2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -1237,28 +1255,28 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R3">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1267,66 +1285,66 @@
         <v>39</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE3">
         <v>10</v>
       </c>
       <c r="AF3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" t="s">
-        <v>80</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -1335,28 +1353,28 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R4">
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1368,63 +1386,63 @@
         <v>38</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE4">
         <v>4</v>
       </c>
       <c r="AF4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>111</v>
-      </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -1433,28 +1451,28 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R5">
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1466,63 +1484,63 @@
         <v>38</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD5" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE5">
         <v>4</v>
       </c>
       <c r="AF5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
         <v>79</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -1531,28 +1549,28 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R6">
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1564,39 +1582,39 @@
         <v>38</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD6" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE6">
         <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
@@ -1629,22 +1647,22 @@
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R7">
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T7" t="s">
         <v>70</v>
@@ -1659,63 +1677,63 @@
         <v>40</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE7">
         <v>4</v>
       </c>
       <c r="AF7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>126</v>
-      </c>
-      <c r="I8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" t="s">
-        <v>128</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -1727,25 +1745,25 @@
         <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R8">
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U8">
         <v>60</v>
@@ -1757,22 +1775,22 @@
         <v>41</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD8" t="s">
         <v>172</v>
@@ -1781,24 +1799,24 @@
         <v>4</v>
       </c>
       <c r="AF8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1807,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
         <v>126</v>
-      </c>
-      <c r="I9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" t="s">
-        <v>128</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -1825,25 +1843,25 @@
         <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R9">
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U9">
         <v>60</v>
@@ -1855,48 +1873,48 @@
         <v>41</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z9" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD9" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE9">
         <v>4</v>
       </c>
       <c r="AF9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1905,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
         <v>126</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" t="s">
-        <v>128</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -1923,25 +1941,25 @@
         <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R10">
         <v>12</v>
       </c>
       <c r="S10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U10">
         <v>60</v>
@@ -1953,48 +1971,48 @@
         <v>41</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD10" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE10">
         <v>4</v>
       </c>
       <c r="AF10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2003,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
         <v>126</v>
-      </c>
-      <c r="I11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" t="s">
-        <v>128</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -2021,25 +2039,25 @@
         <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R11">
         <v>12</v>
       </c>
       <c r="S11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U11">
         <v>60</v>
@@ -2051,48 +2069,48 @@
         <v>41</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD11" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE11">
         <v>4</v>
       </c>
       <c r="AF11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -2101,13 +2119,13 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
         <v>126</v>
-      </c>
-      <c r="I12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" t="s">
-        <v>128</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -2122,22 +2140,22 @@
         <v>33</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R12">
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U12">
         <v>60</v>
@@ -2149,22 +2167,22 @@
         <v>41</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z12" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD12" t="s">
         <v>172</v>
@@ -2173,24 +2191,24 @@
         <v>4</v>
       </c>
       <c r="AF12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -2199,13 +2217,13 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
         <v>126</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" t="s">
-        <v>128</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -2220,22 +2238,22 @@
         <v>33</v>
       </c>
       <c r="O13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U13">
         <v>60</v>
@@ -2247,48 +2265,48 @@
         <v>41</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z13" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD13" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE13">
         <v>4</v>
       </c>
       <c r="AF13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -2297,13 +2315,13 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
         <v>126</v>
-      </c>
-      <c r="I14" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" t="s">
-        <v>128</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -2318,22 +2336,22 @@
         <v>33</v>
       </c>
       <c r="O14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R14">
         <v>12</v>
       </c>
       <c r="S14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U14">
         <v>60</v>
@@ -2345,22 +2363,22 @@
         <v>41</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z14" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD14" t="s">
         <v>172</v>
@@ -2369,24 +2387,24 @@
         <v>4</v>
       </c>
       <c r="AF14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2395,13 +2413,13 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
         <v>126</v>
-      </c>
-      <c r="I15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15" t="s">
-        <v>128</v>
       </c>
       <c r="K15" t="s">
         <v>25</v>
@@ -2413,25 +2431,25 @@
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R15">
         <v>12</v>
       </c>
       <c r="S15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U15">
         <v>60</v>
@@ -2443,48 +2461,48 @@
         <v>41</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z15" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD15" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE15">
         <v>4</v>
       </c>
       <c r="AF15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -2493,13 +2511,13 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
         <v>126</v>
-      </c>
-      <c r="I16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" t="s">
-        <v>128</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
@@ -2511,25 +2529,25 @@
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R16">
         <v>12</v>
       </c>
       <c r="S16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U16">
         <v>60</v>
@@ -2541,48 +2559,48 @@
         <v>41</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z16" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD16" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE16">
         <v>4</v>
       </c>
       <c r="AF16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -2591,13 +2609,13 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
         <v>126</v>
-      </c>
-      <c r="I17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J17" t="s">
-        <v>128</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>
@@ -2609,25 +2627,25 @@
         <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R17">
         <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U17">
         <v>60</v>
@@ -2639,48 +2657,48 @@
         <v>41</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z17" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD17" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE17">
         <v>4</v>
       </c>
       <c r="AF17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -2689,13 +2707,13 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
         <v>126</v>
-      </c>
-      <c r="I18" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" t="s">
-        <v>128</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
@@ -2707,25 +2725,25 @@
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R18">
         <v>12</v>
       </c>
       <c r="S18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U18">
         <v>60</v>
@@ -2737,22 +2755,22 @@
         <v>41</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD18" t="s">
         <v>172</v>
@@ -2761,24 +2779,24 @@
         <v>4</v>
       </c>
       <c r="AF18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -2787,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
         <v>126</v>
-      </c>
-      <c r="I19" t="s">
-        <v>154</v>
-      </c>
-      <c r="J19" t="s">
-        <v>128</v>
       </c>
       <c r="K19" t="s">
         <v>25</v>
@@ -2805,25 +2823,25 @@
         <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R19">
         <v>12</v>
       </c>
       <c r="S19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U19">
         <v>60</v>
@@ -2835,48 +2853,48 @@
         <v>41</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z19" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD19" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE19">
         <v>4</v>
       </c>
       <c r="AF19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2885,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
         <v>126</v>
-      </c>
-      <c r="I20" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" t="s">
-        <v>128</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
@@ -2903,25 +2921,25 @@
         <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R20">
         <v>12</v>
       </c>
       <c r="S20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U20">
         <v>60</v>
@@ -2933,22 +2951,22 @@
         <v>41</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z20" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD20" t="s">
         <v>172</v>
@@ -2957,24 +2975,24 @@
         <v>4</v>
       </c>
       <c r="AF20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2983,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
         <v>126</v>
-      </c>
-      <c r="I21" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" t="s">
-        <v>128</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
@@ -3001,25 +3019,25 @@
         <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R21">
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U21">
         <v>60</v>
@@ -3031,22 +3049,22 @@
         <v>41</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z21" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD21" t="s">
         <v>172</v>
@@ -3055,24 +3073,24 @@
         <v>4</v>
       </c>
       <c r="AF21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3081,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
         <v>126</v>
-      </c>
-      <c r="I22" t="s">
-        <v>157</v>
-      </c>
-      <c r="J22" t="s">
-        <v>128</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
@@ -3099,25 +3117,25 @@
         <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R22">
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U22">
         <v>60</v>
@@ -3129,48 +3147,48 @@
         <v>41</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z22" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD22" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE22">
         <v>4</v>
       </c>
       <c r="AF22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3179,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
         <v>126</v>
-      </c>
-      <c r="I23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" t="s">
-        <v>128</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
@@ -3197,25 +3215,25 @@
         <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R23">
         <v>12</v>
       </c>
       <c r="S23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U23">
         <v>60</v>
@@ -3227,22 +3245,22 @@
         <v>41</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z23" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD23" t="s">
         <v>172</v>
@@ -3251,24 +3269,24 @@
         <v>4</v>
       </c>
       <c r="AF23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3277,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
         <v>126</v>
-      </c>
-      <c r="I24" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" t="s">
-        <v>128</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
@@ -3295,25 +3313,25 @@
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R24">
         <v>12</v>
       </c>
       <c r="S24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U24">
         <v>60</v>
@@ -3325,48 +3343,48 @@
         <v>41</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z24" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD24" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE24">
         <v>4</v>
       </c>
       <c r="AF24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -3375,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" t="s">
         <v>126</v>
-      </c>
-      <c r="I25" t="s">
-        <v>160</v>
-      </c>
-      <c r="J25" t="s">
-        <v>128</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
@@ -3393,25 +3411,25 @@
         <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R25">
         <v>12</v>
       </c>
       <c r="S25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U25">
         <v>60</v>
@@ -3423,48 +3441,48 @@
         <v>41</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD25" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE25">
         <v>4</v>
       </c>
       <c r="AF25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -3473,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" t="s">
         <v>126</v>
-      </c>
-      <c r="I26" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" t="s">
-        <v>128</v>
       </c>
       <c r="K26" t="s">
         <v>25</v>
@@ -3491,25 +3509,25 @@
         <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R26">
         <v>12</v>
       </c>
       <c r="S26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U26">
         <v>60</v>
@@ -3521,34 +3539,34 @@
         <v>41</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z26" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD26" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE26">
         <v>4</v>
       </c>
       <c r="AF26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3559,10 +3577,10 @@
         <v>27</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -3571,13 +3589,13 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" t="s">
         <v>126</v>
-      </c>
-      <c r="I27" t="s">
-        <v>173</v>
-      </c>
-      <c r="J27" t="s">
-        <v>128</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
@@ -3589,25 +3607,25 @@
         <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R27">
         <v>12</v>
       </c>
       <c r="S27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U27">
         <v>60</v>
@@ -3619,39 +3637,48 @@
         <v>41</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z27" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD27" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="AE27">
         <v>4</v>
       </c>
       <c r="AF27" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH27" t="s">
         <v>175</v>
       </c>
+      <c r="AI27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -3717,14 +3744,14 @@
         <v>43</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE28">
         <v>1</v>
@@ -3733,12 +3760,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>27</v>
@@ -3804,14 +3831,14 @@
         <v>43</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE29">
         <v>1</v>
@@ -3820,12 +3847,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>27</v>
@@ -3898,7 +3925,7 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE30">
         <v>1</v>
@@ -3907,12 +3934,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
@@ -3985,7 +4012,7 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE31">
         <v>1</v>
@@ -3994,12 +4021,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -4072,7 +4099,7 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE32">
         <v>1</v>
@@ -4086,7 +4113,7 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4159,7 +4186,7 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE33">
         <v>1</v>
@@ -4173,7 +4200,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>27</v>
@@ -4246,7 +4273,7 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -4260,7 +4287,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>27</v>
@@ -4333,7 +4360,7 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE35">
         <v>1</v>
@@ -4347,7 +4374,7 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>27</v>
@@ -4420,7 +4447,7 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE36">
         <v>1</v>
@@ -4434,7 +4461,7 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>27</v>
@@ -4507,7 +4534,7 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE37">
         <v>1</v>

--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F370D7-3CFF-4FDE-90F0-FE427576403B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECFAC0-356B-48F6-9DD7-3884D09A2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="182">
   <si>
     <t>password</t>
   </si>
@@ -389,12 +389,6 @@
     <t>tutor53@nkt.com</t>
   </si>
   <si>
-    <t>PHP session 3</t>
-  </si>
-  <si>
-    <t>01/11/2022</t>
-  </si>
-  <si>
     <t>tutor55@nkt.com</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>sess class special 29/11 - 31/12</t>
   </si>
   <si>
-    <t>paint sess 2</t>
-  </si>
-  <si>
     <t>paint sess 3</t>
   </si>
   <si>
@@ -443,9 +434,6 @@
     <t>GHJ56GHJK60</t>
   </si>
   <si>
-    <t>GHJ56GHJK61</t>
-  </si>
-  <si>
     <t>GHJ56GHJK62</t>
   </si>
   <si>
@@ -561,6 +549,27 @@
   </si>
   <si>
     <t>Class_type</t>
+  </si>
+  <si>
+    <t>PHP session multi 1</t>
+  </si>
+  <si>
+    <t>08/12/2022</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\baseball1.jpg</t>
+  </si>
+  <si>
+    <t>PHP session 4</t>
+  </si>
+  <si>
+    <t>10/12/2022</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat3.jpg</t>
   </si>
 </sst>
 </file>
@@ -973,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,13 +1119,13 @@
         <v>5</v>
       </c>
       <c r="AG1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>174</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
@@ -1208,7 +1217,7 @@
         <v>97</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE2">
         <v>10</v>
@@ -1404,7 +1413,7 @@
         <v>97</v>
       </c>
       <c r="AD4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE4">
         <v>4</v>
@@ -1502,13 +1511,13 @@
         <v>97</v>
       </c>
       <c r="AD5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE5">
         <v>4</v>
       </c>
       <c r="AF5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -1516,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
@@ -1537,7 +1546,7 @@
         <v>118</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="J6" t="s">
         <v>79</v>
@@ -1582,10 +1591,10 @@
         <v>38</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>73</v>
@@ -1600,13 +1609,13 @@
         <v>97</v>
       </c>
       <c r="AD6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AE6">
         <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
@@ -1650,7 +1659,7 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1677,7 +1686,7 @@
         <v>40</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>93</v>
@@ -1686,7 +1695,7 @@
         <v>73</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>98</v>
@@ -1695,13 +1704,13 @@
         <v>97</v>
       </c>
       <c r="AD7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE7">
         <v>4</v>
       </c>
       <c r="AF7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -1715,7 +1724,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>78</v>
@@ -1727,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" t="s">
         <v>124</v>
-      </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" t="s">
-        <v>126</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -1748,7 +1757,7 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1763,7 +1772,7 @@
         <v>106</v>
       </c>
       <c r="T8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U8">
         <v>60</v>
@@ -1775,7 +1784,7 @@
         <v>41</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>93</v>
@@ -1784,7 +1793,7 @@
         <v>73</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AB8" s="7" t="s">
         <v>98</v>
@@ -1793,13 +1802,13 @@
         <v>97</v>
       </c>
       <c r="AD8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE8">
         <v>4</v>
       </c>
       <c r="AF8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -1813,25 +1822,25 @@
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -1840,13 +1849,13 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1861,28 +1870,28 @@
         <v>106</v>
       </c>
       <c r="T9" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="U9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="Z9" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="7" t="s">
         <v>98</v>
@@ -1891,13 +1900,13 @@
         <v>97</v>
       </c>
       <c r="AD9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AE9">
         <v>4</v>
       </c>
       <c r="AF9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
@@ -1911,7 +1920,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>78</v>
@@ -1923,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" t="s">
         <v>124</v>
-      </c>
-      <c r="I10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" t="s">
-        <v>126</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -1944,7 +1953,7 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1959,7 +1968,7 @@
         <v>106</v>
       </c>
       <c r="T10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U10">
         <v>60</v>
@@ -1971,7 +1980,7 @@
         <v>41</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>93</v>
@@ -1980,7 +1989,7 @@
         <v>73</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>98</v>
@@ -1989,13 +1998,13 @@
         <v>97</v>
       </c>
       <c r="AD10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE10">
         <v>4</v>
       </c>
       <c r="AF10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -2009,7 +2018,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>78</v>
@@ -2021,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
         <v>124</v>
-      </c>
-      <c r="I11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>126</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -2042,7 +2051,7 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -2057,7 +2066,7 @@
         <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U11">
         <v>60</v>
@@ -2069,7 +2078,7 @@
         <v>41</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>93</v>
@@ -2078,7 +2087,7 @@
         <v>73</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>98</v>
@@ -2087,13 +2096,13 @@
         <v>97</v>
       </c>
       <c r="AD11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE11">
         <v>4</v>
       </c>
       <c r="AF11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -2107,7 +2116,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>78</v>
@@ -2119,13 +2128,13 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
         <v>124</v>
-      </c>
-      <c r="I12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J12" t="s">
-        <v>126</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -2140,7 +2149,7 @@
         <v>33</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2155,7 +2164,7 @@
         <v>106</v>
       </c>
       <c r="T12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U12">
         <v>60</v>
@@ -2167,7 +2176,7 @@
         <v>41</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y12" s="2" t="s">
         <v>93</v>
@@ -2176,7 +2185,7 @@
         <v>73</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>98</v>
@@ -2185,13 +2194,13 @@
         <v>97</v>
       </c>
       <c r="AD12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE12">
         <v>4</v>
       </c>
       <c r="AF12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -2205,7 +2214,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>78</v>
@@ -2217,13 +2226,13 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
         <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" t="s">
-        <v>126</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -2238,7 +2247,7 @@
         <v>33</v>
       </c>
       <c r="O13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -2253,7 +2262,7 @@
         <v>106</v>
       </c>
       <c r="T13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U13">
         <v>60</v>
@@ -2265,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>93</v>
@@ -2274,7 +2283,7 @@
         <v>73</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>98</v>
@@ -2283,13 +2292,13 @@
         <v>97</v>
       </c>
       <c r="AD13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE13">
         <v>4</v>
       </c>
       <c r="AF13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
@@ -2303,7 +2312,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>78</v>
@@ -2315,13 +2324,13 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
         <v>124</v>
-      </c>
-      <c r="I14" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" t="s">
-        <v>126</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -2336,7 +2345,7 @@
         <v>33</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2351,7 +2360,7 @@
         <v>106</v>
       </c>
       <c r="T14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U14">
         <v>60</v>
@@ -2363,7 +2372,7 @@
         <v>41</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y14" s="2" t="s">
         <v>93</v>
@@ -2372,7 +2381,7 @@
         <v>73</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AB14" s="7" t="s">
         <v>98</v>
@@ -2381,13 +2390,13 @@
         <v>97</v>
       </c>
       <c r="AD14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE14">
         <v>4</v>
       </c>
       <c r="AF14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
@@ -2401,7 +2410,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>78</v>
@@ -2413,13 +2422,13 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
         <v>124</v>
-      </c>
-      <c r="I15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" t="s">
-        <v>126</v>
       </c>
       <c r="K15" t="s">
         <v>25</v>
@@ -2434,7 +2443,7 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2449,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="T15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U15">
         <v>60</v>
@@ -2461,7 +2470,7 @@
         <v>41</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y15" s="2" t="s">
         <v>93</v>
@@ -2470,7 +2479,7 @@
         <v>73</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>98</v>
@@ -2479,13 +2488,13 @@
         <v>97</v>
       </c>
       <c r="AD15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE15">
         <v>4</v>
       </c>
       <c r="AF15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
@@ -2499,7 +2508,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>78</v>
@@ -2511,13 +2520,13 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
         <v>124</v>
-      </c>
-      <c r="I16" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" t="s">
-        <v>126</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
@@ -2532,7 +2541,7 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -2547,7 +2556,7 @@
         <v>106</v>
       </c>
       <c r="T16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U16">
         <v>60</v>
@@ -2559,7 +2568,7 @@
         <v>41</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y16" s="2" t="s">
         <v>93</v>
@@ -2568,7 +2577,7 @@
         <v>73</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>98</v>
@@ -2577,13 +2586,13 @@
         <v>97</v>
       </c>
       <c r="AD16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE16">
         <v>4</v>
       </c>
       <c r="AF16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
@@ -2597,7 +2606,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>78</v>
@@ -2609,13 +2618,13 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
         <v>124</v>
-      </c>
-      <c r="I17" t="s">
-        <v>150</v>
-      </c>
-      <c r="J17" t="s">
-        <v>126</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>
@@ -2630,7 +2639,7 @@
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2645,7 +2654,7 @@
         <v>106</v>
       </c>
       <c r="T17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U17">
         <v>60</v>
@@ -2657,7 +2666,7 @@
         <v>41</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>93</v>
@@ -2666,7 +2675,7 @@
         <v>73</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AB17" s="7" t="s">
         <v>98</v>
@@ -2675,13 +2684,13 @@
         <v>97</v>
       </c>
       <c r="AD17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE17">
         <v>4</v>
       </c>
       <c r="AF17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
@@ -2695,7 +2704,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>78</v>
@@ -2707,13 +2716,13 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
         <v>124</v>
-      </c>
-      <c r="I18" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" t="s">
-        <v>126</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
@@ -2728,7 +2737,7 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2743,7 +2752,7 @@
         <v>106</v>
       </c>
       <c r="T18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U18">
         <v>60</v>
@@ -2755,7 +2764,7 @@
         <v>41</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>93</v>
@@ -2764,7 +2773,7 @@
         <v>73</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AB18" s="7" t="s">
         <v>98</v>
@@ -2773,13 +2782,13 @@
         <v>97</v>
       </c>
       <c r="AD18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE18">
         <v>4</v>
       </c>
       <c r="AF18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
@@ -2793,7 +2802,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>78</v>
@@ -2805,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
         <v>124</v>
-      </c>
-      <c r="I19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" t="s">
-        <v>126</v>
       </c>
       <c r="K19" t="s">
         <v>25</v>
@@ -2826,7 +2835,7 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -2841,7 +2850,7 @@
         <v>106</v>
       </c>
       <c r="T19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U19">
         <v>60</v>
@@ -2853,7 +2862,7 @@
         <v>41</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>93</v>
@@ -2862,7 +2871,7 @@
         <v>73</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AB19" s="7" t="s">
         <v>98</v>
@@ -2871,13 +2880,13 @@
         <v>97</v>
       </c>
       <c r="AD19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE19">
         <v>4</v>
       </c>
       <c r="AF19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
@@ -2891,7 +2900,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>78</v>
@@ -2903,13 +2912,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" t="s">
         <v>124</v>
-      </c>
-      <c r="I20" t="s">
-        <v>153</v>
-      </c>
-      <c r="J20" t="s">
-        <v>126</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
@@ -2924,7 +2933,7 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2939,7 +2948,7 @@
         <v>106</v>
       </c>
       <c r="T20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U20">
         <v>60</v>
@@ -2951,7 +2960,7 @@
         <v>41</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>93</v>
@@ -2960,7 +2969,7 @@
         <v>73</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AB20" s="7" t="s">
         <v>98</v>
@@ -2969,13 +2978,13 @@
         <v>97</v>
       </c>
       <c r="AD20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE20">
         <v>4</v>
       </c>
       <c r="AF20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
@@ -2989,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>78</v>
@@ -3001,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
         <v>124</v>
-      </c>
-      <c r="I21" t="s">
-        <v>154</v>
-      </c>
-      <c r="J21" t="s">
-        <v>126</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
@@ -3022,7 +3031,7 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -3037,7 +3046,7 @@
         <v>106</v>
       </c>
       <c r="T21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U21">
         <v>60</v>
@@ -3049,7 +3058,7 @@
         <v>41</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y21" s="2" t="s">
         <v>93</v>
@@ -3058,7 +3067,7 @@
         <v>73</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AB21" s="7" t="s">
         <v>98</v>
@@ -3067,13 +3076,13 @@
         <v>97</v>
       </c>
       <c r="AD21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE21">
         <v>4</v>
       </c>
       <c r="AF21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
@@ -3087,7 +3096,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>78</v>
@@ -3099,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" t="s">
         <v>124</v>
-      </c>
-      <c r="I22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" t="s">
-        <v>126</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
@@ -3120,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -3135,7 +3144,7 @@
         <v>106</v>
       </c>
       <c r="T22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U22">
         <v>60</v>
@@ -3147,7 +3156,7 @@
         <v>41</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y22" s="2" t="s">
         <v>93</v>
@@ -3156,7 +3165,7 @@
         <v>73</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AB22" s="7" t="s">
         <v>98</v>
@@ -3165,13 +3174,13 @@
         <v>97</v>
       </c>
       <c r="AD22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE22">
         <v>4</v>
       </c>
       <c r="AF22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
@@ -3185,7 +3194,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>78</v>
@@ -3197,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
         <v>124</v>
-      </c>
-      <c r="I23" t="s">
-        <v>156</v>
-      </c>
-      <c r="J23" t="s">
-        <v>126</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
@@ -3218,7 +3227,7 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -3233,7 +3242,7 @@
         <v>106</v>
       </c>
       <c r="T23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U23">
         <v>60</v>
@@ -3245,7 +3254,7 @@
         <v>41</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>93</v>
@@ -3254,7 +3263,7 @@
         <v>73</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AB23" s="7" t="s">
         <v>98</v>
@@ -3263,13 +3272,13 @@
         <v>97</v>
       </c>
       <c r="AD23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE23">
         <v>4</v>
       </c>
       <c r="AF23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
@@ -3283,7 +3292,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>78</v>
@@ -3295,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" t="s">
         <v>124</v>
-      </c>
-      <c r="I24" t="s">
-        <v>157</v>
-      </c>
-      <c r="J24" t="s">
-        <v>126</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
@@ -3316,7 +3325,7 @@
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3331,7 +3340,7 @@
         <v>106</v>
       </c>
       <c r="T24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U24">
         <v>60</v>
@@ -3343,7 +3352,7 @@
         <v>41</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y24" s="2" t="s">
         <v>93</v>
@@ -3352,7 +3361,7 @@
         <v>73</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB24" s="7" t="s">
         <v>98</v>
@@ -3361,13 +3370,13 @@
         <v>97</v>
       </c>
       <c r="AD24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE24">
         <v>4</v>
       </c>
       <c r="AF24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
@@ -3381,7 +3390,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>78</v>
@@ -3393,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
         <v>124</v>
-      </c>
-      <c r="I25" t="s">
-        <v>158</v>
-      </c>
-      <c r="J25" t="s">
-        <v>126</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
@@ -3414,7 +3423,7 @@
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3429,7 +3438,7 @@
         <v>106</v>
       </c>
       <c r="T25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U25">
         <v>60</v>
@@ -3441,7 +3450,7 @@
         <v>41</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>93</v>
@@ -3450,7 +3459,7 @@
         <v>73</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AB25" s="7" t="s">
         <v>98</v>
@@ -3459,13 +3468,13 @@
         <v>97</v>
       </c>
       <c r="AD25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE25">
         <v>4</v>
       </c>
       <c r="AF25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
@@ -3479,7 +3488,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>78</v>
@@ -3491,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" t="s">
         <v>124</v>
-      </c>
-      <c r="I26" t="s">
-        <v>159</v>
-      </c>
-      <c r="J26" t="s">
-        <v>126</v>
       </c>
       <c r="K26" t="s">
         <v>25</v>
@@ -3512,7 +3521,7 @@
         <v>76</v>
       </c>
       <c r="O26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3527,7 +3536,7 @@
         <v>106</v>
       </c>
       <c r="T26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U26">
         <v>60</v>
@@ -3539,7 +3548,7 @@
         <v>41</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>93</v>
@@ -3548,7 +3557,7 @@
         <v>73</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AB26" s="7" t="s">
         <v>98</v>
@@ -3557,13 +3566,13 @@
         <v>97</v>
       </c>
       <c r="AD26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE26">
         <v>4</v>
       </c>
       <c r="AF26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
@@ -3571,13 +3580,13 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>78</v>
@@ -3589,13 +3598,13 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" t="s">
         <v>124</v>
-      </c>
-      <c r="I27" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" t="s">
-        <v>126</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
@@ -3610,7 +3619,7 @@
         <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3625,7 +3634,7 @@
         <v>106</v>
       </c>
       <c r="T27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U27">
         <v>60</v>
@@ -3637,7 +3646,7 @@
         <v>41</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y27" s="2" t="s">
         <v>93</v>
@@ -3646,7 +3655,7 @@
         <v>73</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AB27" s="7" t="s">
         <v>98</v>
@@ -3655,19 +3664,19 @@
         <v>97</v>
       </c>
       <c r="AD27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE27">
         <v>4</v>
       </c>
       <c r="AF27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH27" t="s">
         <v>171</v>
       </c>
-      <c r="AH27" t="s">
-        <v>175</v>
-      </c>
       <c r="AI27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AJ27" t="s">
         <v>74</v>
@@ -3751,7 +3760,7 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE28">
         <v>1</v>
@@ -3838,7 +3847,7 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE29">
         <v>1</v>
@@ -3925,7 +3934,7 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE30">
         <v>1</v>
@@ -4012,7 +4021,7 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE31">
         <v>1</v>
@@ -4099,7 +4108,7 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE32">
         <v>1</v>
@@ -4186,7 +4195,7 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE33">
         <v>1</v>
@@ -4273,7 +4282,7 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -4360,7 +4369,7 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE35">
         <v>1</v>
@@ -4447,7 +4456,7 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE36">
         <v>1</v>
@@ -4534,7 +4543,7 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE37">
         <v>1</v>
@@ -4606,8 +4615,11 @@
     <hyperlink ref="AB27" r:id="rId52" xr:uid="{D8BCB0C1-DF75-4E29-B93B-EF968D7E3080}"/>
     <hyperlink ref="AC27" r:id="rId53" xr:uid="{9BE37098-3F2D-4867-8485-F3892A399D4C}"/>
     <hyperlink ref="D27" r:id="rId54" xr:uid="{464BB1B6-6CAC-4EAC-A8A3-465A5377101D}"/>
+    <hyperlink ref="AB9" r:id="rId55" xr:uid="{BB908B19-57D9-48E5-9E15-79B804C9D2EE}"/>
+    <hyperlink ref="AC9" r:id="rId56" xr:uid="{35090175-93F5-4CF7-94D8-BF466061666B}"/>
+    <hyperlink ref="D9" r:id="rId57" xr:uid="{7A25C8A4-376B-4E3E-BD2D-8482A5A20A41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECFAC0-356B-48F6-9DD7-3884D09A2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F8421-1E6F-4003-80F2-B7FA4769CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="186">
   <si>
     <t>password</t>
   </si>
@@ -551,25 +551,37 @@
     <t>Class_type</t>
   </si>
   <si>
-    <t>PHP session multi 1</t>
-  </si>
-  <si>
-    <t>08/12/2022</t>
-  </si>
-  <si>
     <t>31/01/2023</t>
   </si>
   <si>
     <t>D:\test\picturesprofile1\baseball1.jpg</t>
   </si>
   <si>
-    <t>PHP session 4</t>
-  </si>
-  <si>
-    <t>10/12/2022</t>
-  </si>
-  <si>
-    <t>D:\test\picturesprofile1\bharat3.jpg</t>
+    <t>24/12/2022</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PHP session6</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Java session 8</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>prereq</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>sess class special 01/01 - 31/01</t>
   </si>
 </sst>
 </file>
@@ -980,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,10 +1030,11 @@
     <col min="29" max="29" width="30.5546875" customWidth="1"/>
     <col min="30" max="30" width="49.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.33203125" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1116,19 +1129,22 @@
         <v>17</v>
       </c>
       <c r="AF1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG1" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>170</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>172</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1222,11 +1238,11 @@
       <c r="AE2">
         <v>10</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1320,11 +1336,11 @@
       <c r="AE3">
         <v>10</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1418,11 +1434,11 @@
       <c r="AE4">
         <v>4</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1516,16 +1532,16 @@
       <c r="AE5">
         <v>4</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
@@ -1537,10 +1553,10 @@
         <v>78</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>118</v>
@@ -1579,7 +1595,7 @@
         <v>106</v>
       </c>
       <c r="T6" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1591,10 +1607,10 @@
         <v>38</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>73</v>
@@ -1609,16 +1625,16 @@
         <v>97</v>
       </c>
       <c r="AD6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AE6">
         <v>4</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1646,6 +1662,9 @@
       <c r="I7" t="s">
         <v>36</v>
       </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" t="s">
         <v>25</v>
       </c>
@@ -1709,11 +1728,11 @@
       <c r="AE7">
         <v>4</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1807,16 +1826,16 @@
       <c r="AE8">
         <v>4</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
@@ -1828,25 +1847,25 @@
         <v>78</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -1870,10 +1889,10 @@
         <v>106</v>
       </c>
       <c r="T9" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>37</v>
@@ -1882,10 +1901,10 @@
         <v>38</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z9" s="5" t="s">
         <v>73</v>
@@ -1900,16 +1919,19 @@
         <v>97</v>
       </c>
       <c r="AD9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE9">
         <v>4</v>
       </c>
       <c r="AF9" t="s">
-        <v>128</v>
+        <v>184</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1932,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="I10" t="s">
         <v>129</v>
@@ -2003,11 +2025,11 @@
       <c r="AE10">
         <v>4</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2039,7 +2061,7 @@
         <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -2101,11 +2123,11 @@
       <c r="AE11">
         <v>4</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2199,11 +2221,11 @@
       <c r="AE12">
         <v>4</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2297,11 +2319,11 @@
       <c r="AE13">
         <v>4</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2395,11 +2417,11 @@
       <c r="AE14">
         <v>4</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2493,11 +2515,11 @@
       <c r="AE15">
         <v>4</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2591,11 +2613,11 @@
       <c r="AE16">
         <v>4</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2689,11 +2711,11 @@
       <c r="AE17">
         <v>4</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2787,11 +2809,11 @@
       <c r="AE18">
         <v>4</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2885,11 +2907,11 @@
       <c r="AE19">
         <v>4</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2983,11 +3005,11 @@
       <c r="AE20">
         <v>4</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3081,11 +3103,11 @@
       <c r="AE21">
         <v>4</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3179,11 +3201,11 @@
       <c r="AE22">
         <v>4</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3277,11 +3299,11 @@
       <c r="AE23">
         <v>4</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3375,11 +3397,11 @@
       <c r="AE24">
         <v>4</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3473,11 +3495,11 @@
       <c r="AE25">
         <v>4</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3571,11 +3593,11 @@
       <c r="AE26">
         <v>4</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3669,20 +3691,20 @@
       <c r="AE27">
         <v>4</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>167</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>171</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>173</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -3765,11 +3787,11 @@
       <c r="AE28">
         <v>1</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -3852,11 +3874,11 @@
       <c r="AE29">
         <v>1</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3939,11 +3961,11 @@
       <c r="AE30">
         <v>1</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -4026,11 +4048,11 @@
       <c r="AE31">
         <v>1</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4113,11 +4135,11 @@
       <c r="AE32">
         <v>1</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -4200,11 +4222,11 @@
       <c r="AE33">
         <v>1</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -4287,11 +4309,11 @@
       <c r="AE34">
         <v>1</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -4374,11 +4396,11 @@
       <c r="AE35">
         <v>1</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -4461,11 +4483,11 @@
       <c r="AE36">
         <v>1</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -4548,14 +4570,14 @@
       <c r="AE37">
         <v>1</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="X39" s="5"/>
     </row>
   </sheetData>
@@ -4615,9 +4637,9 @@
     <hyperlink ref="AB27" r:id="rId52" xr:uid="{D8BCB0C1-DF75-4E29-B93B-EF968D7E3080}"/>
     <hyperlink ref="AC27" r:id="rId53" xr:uid="{9BE37098-3F2D-4867-8485-F3892A399D4C}"/>
     <hyperlink ref="D27" r:id="rId54" xr:uid="{464BB1B6-6CAC-4EAC-A8A3-465A5377101D}"/>
-    <hyperlink ref="AB9" r:id="rId55" xr:uid="{BB908B19-57D9-48E5-9E15-79B804C9D2EE}"/>
-    <hyperlink ref="AC9" r:id="rId56" xr:uid="{35090175-93F5-4CF7-94D8-BF466061666B}"/>
-    <hyperlink ref="D9" r:id="rId57" xr:uid="{7A25C8A4-376B-4E3E-BD2D-8482A5A20A41}"/>
+    <hyperlink ref="AB9" r:id="rId55" xr:uid="{2ABF1249-0C77-4416-B7DE-11287349008D}"/>
+    <hyperlink ref="AC9" r:id="rId56" xr:uid="{C14D304C-0EB0-466A-849D-D95DE7B7C6E7}"/>
+    <hyperlink ref="D9" r:id="rId57" xr:uid="{4EB3CF80-8AB0-47F0-8C9B-0C7EF935742D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId58"/>

--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F8421-1E6F-4003-80F2-B7FA4769CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908E583-4480-4E59-91CE-6C3221FAA91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="186">
   <si>
     <t>password</t>
   </si>
@@ -134,9 +136,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>Geetanjali Tuesday 6:00</t>
-  </si>
-  <si>
     <t>04:00 pm</t>
   </si>
   <si>
@@ -152,18 +151,9 @@
     <t>08:00 pm</t>
   </si>
   <si>
-    <t>carnatic</t>
-  </si>
-  <si>
     <t>20/09/2021</t>
   </si>
   <si>
-    <t>akila@nurtem.com</t>
-  </si>
-  <si>
-    <t>Nurtem1!</t>
-  </si>
-  <si>
     <t>david@nurtem.com</t>
   </si>
   <si>
@@ -236,9 +226,6 @@
     <t>sunday</t>
   </si>
   <si>
-    <t>tuesday</t>
-  </si>
-  <si>
     <t>Monthly_type</t>
   </si>
   <si>
@@ -281,9 +268,6 @@
     <t>Beginner</t>
   </si>
   <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
     <t>Lawspet</t>
   </si>
   <si>
@@ -353,9 +337,6 @@
     <t>srinivasesaivanan6324@gmail.com</t>
   </si>
   <si>
-    <t>Cello</t>
-  </si>
-  <si>
     <t>24/11/2022</t>
   </si>
   <si>
@@ -368,9 +349,6 @@
     <t>Saturday,Wednesday,Tuesday</t>
   </si>
   <si>
-    <t>Cello Group3</t>
-  </si>
-  <si>
     <t>monday</t>
   </si>
   <si>
@@ -416,21 +394,9 @@
     <t>paint sess 3</t>
   </si>
   <si>
-    <t>paint sess 4</t>
-  </si>
-  <si>
-    <t>paint var 5</t>
-  </si>
-  <si>
-    <t>paint var 6</t>
-  </si>
-  <si>
     <t>paint var 7</t>
   </si>
   <si>
-    <t>GHJ56GHJK59</t>
-  </si>
-  <si>
     <t>GHJ56GHJK60</t>
   </si>
   <si>
@@ -440,33 +406,12 @@
     <t>GHJ56GHJK63</t>
   </si>
   <si>
-    <t>GHJ56GHJK64</t>
-  </si>
-  <si>
-    <t>GHJ56GHJK65</t>
-  </si>
-  <si>
     <t>GHJ56GHJK66</t>
   </si>
   <si>
-    <t>GHJ56GHJK67</t>
-  </si>
-  <si>
-    <t>GHJ56GHJK68</t>
-  </si>
-  <si>
     <t>GHJ56GHJK69</t>
   </si>
   <si>
-    <t>paint var 8</t>
-  </si>
-  <si>
-    <t>paint var 9</t>
-  </si>
-  <si>
-    <t>paint var 10</t>
-  </si>
-  <si>
     <t>paint var 11</t>
   </si>
   <si>
@@ -569,19 +514,76 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Java session 8</t>
-  </si>
-  <si>
-    <t>01/01/2023</t>
-  </si>
-  <si>
     <t>prereq</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>sess class special 01/01 - 31/01</t>
+    <t>tutor54@nkt.com</t>
+  </si>
+  <si>
+    <t>04/01/2023</t>
+  </si>
+  <si>
+    <t>28/02/2023</t>
+  </si>
+  <si>
+    <t>sess class special 04/01 - 28/02</t>
+  </si>
+  <si>
+    <t>paint fix 1</t>
+  </si>
+  <si>
+    <t>paint var 1</t>
+  </si>
+  <si>
+    <t>paint sess 1 ind</t>
+  </si>
+  <si>
+    <t>paint fix 1 ind</t>
+  </si>
+  <si>
+    <t>paint var 1 ind</t>
+  </si>
+  <si>
+    <t>sess class special 06/01 - 28/02</t>
+  </si>
+  <si>
+    <t>paint sess 5</t>
+  </si>
+  <si>
+    <t>07/01/2023</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat3.jpg</t>
+  </si>
+  <si>
+    <t>sess class multi 10/01 - 28/01</t>
+  </si>
+  <si>
+    <t>clarinet session 5</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>beginner</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>clarinet MF 5</t>
+  </si>
+  <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
+    <t>clarinet MV 5</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -1063,7 +1065,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1111,16 +1113,16 @@
         <v>16</v>
       </c>
       <c r="Z1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AA1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AB1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AD1" t="s">
         <v>3</v>
@@ -1129,19 +1131,19 @@
         <v>17</v>
       </c>
       <c r="AF1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="AG1" t="s">
         <v>5</v>
       </c>
       <c r="AH1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="AJ1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="AK1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
@@ -1149,16 +1151,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F2" s="8">
         <v>2</v>
@@ -1167,13 +1169,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1182,64 +1184,67 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R2">
         <v>12</v>
       </c>
       <c r="S2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
         <v>106</v>
       </c>
-      <c r="T2" t="s">
-        <v>113</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AB2" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE2">
         <v>10</v>
       </c>
+      <c r="AF2" t="s">
+        <v>163</v>
+      </c>
       <c r="AG2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -1247,16 +1252,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -1265,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -1280,64 +1285,67 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="R3">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" t="s">
         <v>97</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>103</v>
       </c>
       <c r="AE3">
         <v>10</v>
       </c>
+      <c r="AF3" t="s">
+        <v>163</v>
+      </c>
       <c r="AG3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
@@ -1345,16 +1353,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -1363,13 +1371,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -1378,64 +1386,67 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R4">
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="X4" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE4">
         <v>4</v>
       </c>
+      <c r="AF4" t="s">
+        <v>163</v>
+      </c>
       <c r="AG4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -1443,16 +1454,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1461,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -1476,64 +1487,67 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="R5">
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="X5" s="2" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AE5">
         <v>4</v>
       </c>
+      <c r="AF5" t="s">
+        <v>163</v>
+      </c>
       <c r="AG5" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -1541,31 +1555,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -1574,64 +1588,67 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R6">
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T6" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="X6" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="AE6">
         <v>4</v>
       </c>
+      <c r="AF6" t="s">
+        <v>163</v>
+      </c>
       <c r="AG6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -1639,31 +1656,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -1672,64 +1689,67 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="R7">
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="U7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AE7">
         <v>4</v>
       </c>
+      <c r="AF7" t="s">
+        <v>163</v>
+      </c>
       <c r="AG7" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -1737,16 +1757,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1755,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -1773,61 +1793,64 @@
         <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R8">
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U8">
         <v>60</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X8" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD8" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE8">
         <v>4</v>
       </c>
+      <c r="AF8" t="s">
+        <v>163</v>
+      </c>
       <c r="AG8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -1835,88 +1858,88 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>120</v>
+      <c r="D9" t="s">
+        <v>102</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
         <v>181</v>
       </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>84</v>
-      </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="R9">
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T9" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="U9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="X9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD9" t="s">
         <v>176</v>
@@ -1925,10 +1948,10 @@
         <v>4</v>
       </c>
       <c r="AF9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="AG9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -1936,31 +1959,31 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" t="s">
-        <v>129</v>
-      </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -1972,61 +1995,64 @@
         <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R10">
         <v>12</v>
       </c>
       <c r="S10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U10">
         <v>60</v>
       </c>
       <c r="V10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X10" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD10" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE10">
         <v>4</v>
       </c>
+      <c r="AF10" t="s">
+        <v>163</v>
+      </c>
       <c r="AG10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -2034,16 +2060,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2052,16 +2078,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -2070,61 +2096,64 @@
         <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R11">
         <v>12</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T11" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="U11">
         <v>60</v>
       </c>
       <c r="V11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X11" s="2" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD11" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AE11">
         <v>4</v>
       </c>
+      <c r="AF11" t="s">
+        <v>163</v>
+      </c>
       <c r="AG11" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -2132,31 +2161,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -2168,61 +2197,64 @@
         <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R12">
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U12">
         <v>60</v>
       </c>
       <c r="V12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X12" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AE12">
         <v>4</v>
       </c>
+      <c r="AF12" t="s">
+        <v>163</v>
+      </c>
       <c r="AG12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -2230,16 +2262,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -2248,13 +2280,13 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -2266,61 +2298,64 @@
         <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U13">
         <v>60</v>
       </c>
       <c r="V13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X13" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AB13" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AE13">
         <v>4</v>
       </c>
+      <c r="AF13" t="s">
+        <v>163</v>
+      </c>
       <c r="AG13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -2328,16 +2363,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -2346,13 +2381,13 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
         <v>122</v>
       </c>
-      <c r="I14" t="s">
-        <v>133</v>
-      </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -2367,58 +2402,61 @@
         <v>33</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R14">
         <v>12</v>
       </c>
       <c r="S14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U14">
         <v>60</v>
       </c>
       <c r="V14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W14" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="AB14" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD14" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE14">
         <v>4</v>
       </c>
+      <c r="AF14" t="s">
+        <v>163</v>
+      </c>
       <c r="AG14" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -2426,97 +2464,100 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M15" t="s">
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R15">
         <v>12</v>
       </c>
       <c r="S15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U15">
         <v>60</v>
       </c>
       <c r="V15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X15" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD15" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AE15">
         <v>4</v>
       </c>
+      <c r="AF15" t="s">
+        <v>163</v>
+      </c>
       <c r="AG15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -2524,97 +2565,100 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R16">
         <v>12</v>
       </c>
       <c r="S16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U16">
         <v>60</v>
       </c>
       <c r="V16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X16" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD16" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AE16">
         <v>4</v>
       </c>
+      <c r="AF16" t="s">
+        <v>163</v>
+      </c>
       <c r="AG16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -2622,16 +2666,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -2640,79 +2684,82 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M17" t="s">
         <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R17">
         <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U17">
         <v>60</v>
       </c>
       <c r="V17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X17" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AE17">
         <v>4</v>
       </c>
+      <c r="AF17" t="s">
+        <v>163</v>
+      </c>
       <c r="AG17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -2720,16 +2767,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -2738,13 +2785,13 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
@@ -2756,61 +2803,64 @@
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R18">
         <v>12</v>
       </c>
       <c r="S18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U18">
         <v>60</v>
       </c>
       <c r="V18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X18" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD18" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE18">
         <v>4</v>
       </c>
+      <c r="AF18" t="s">
+        <v>163</v>
+      </c>
       <c r="AG18" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -2818,16 +2868,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -2836,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s">
         <v>25</v>
@@ -2854,61 +2904,64 @@
         <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R19">
         <v>12</v>
       </c>
       <c r="S19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
       <c r="V19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X19" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD19" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE19">
         <v>4</v>
       </c>
+      <c r="AF19" t="s">
+        <v>163</v>
+      </c>
       <c r="AG19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -2916,16 +2969,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2934,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
@@ -2952,61 +3005,64 @@
         <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R20">
         <v>12</v>
       </c>
       <c r="S20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U20">
         <v>60</v>
       </c>
       <c r="V20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X20" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD20" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE20">
         <v>4</v>
       </c>
+      <c r="AF20" t="s">
+        <v>163</v>
+      </c>
       <c r="AG20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -3014,16 +3070,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3032,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
@@ -3050,61 +3106,64 @@
         <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R21">
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U21">
         <v>60</v>
       </c>
       <c r="V21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W21" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X21" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD21" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE21">
         <v>4</v>
       </c>
+      <c r="AF21" t="s">
+        <v>163</v>
+      </c>
       <c r="AG21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
@@ -3112,16 +3171,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3130,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
@@ -3148,61 +3207,64 @@
         <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R22">
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U22">
         <v>60</v>
       </c>
       <c r="V22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W22" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X22" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD22" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE22">
         <v>4</v>
       </c>
+      <c r="AF22" t="s">
+        <v>163</v>
+      </c>
       <c r="AG22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -3210,16 +3272,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3228,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
@@ -3246,61 +3308,64 @@
         <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R23">
         <v>12</v>
       </c>
       <c r="S23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U23">
         <v>60</v>
       </c>
       <c r="V23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W23" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X23" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD23" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE23">
         <v>4</v>
       </c>
+      <c r="AF23" t="s">
+        <v>163</v>
+      </c>
       <c r="AG23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
@@ -3308,16 +3373,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3326,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
@@ -3344,61 +3409,64 @@
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R24">
         <v>12</v>
       </c>
       <c r="S24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U24">
         <v>60</v>
       </c>
       <c r="V24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X24" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD24" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE24">
         <v>4</v>
       </c>
+      <c r="AF24" t="s">
+        <v>163</v>
+      </c>
       <c r="AG24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
@@ -3406,16 +3474,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -3424,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
@@ -3442,61 +3510,64 @@
         <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O25" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R25">
         <v>12</v>
       </c>
       <c r="S25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U25">
         <v>60</v>
       </c>
       <c r="V25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X25" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD25" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE25">
         <v>4</v>
       </c>
+      <c r="AF25" t="s">
+        <v>163</v>
+      </c>
       <c r="AG25" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
@@ -3504,16 +3575,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -3522,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K26" t="s">
         <v>25</v>
@@ -3540,61 +3611,64 @@
         <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R26">
         <v>12</v>
       </c>
       <c r="S26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U26">
         <v>60</v>
       </c>
       <c r="V26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W26" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X26" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD26" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE26">
         <v>4</v>
       </c>
+      <c r="AF26" t="s">
+        <v>163</v>
+      </c>
       <c r="AG26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
@@ -3602,16 +3676,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -3620,13 +3694,13 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
@@ -3638,70 +3712,73 @@
         <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O27" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R27">
         <v>12</v>
       </c>
       <c r="S27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U27">
         <v>60</v>
       </c>
       <c r="V27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W27" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X27" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD27" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE27">
         <v>4</v>
       </c>
+      <c r="AF27" t="s">
+        <v>163</v>
+      </c>
       <c r="AG27" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="AI27" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AJ27" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="AK27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
@@ -3709,16 +3786,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -3727,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s">
         <v>25</v>
@@ -3760,35 +3837,38 @@
         <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U28">
         <v>60</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE28">
         <v>1</v>
       </c>
+      <c r="AF28" t="s">
+        <v>163</v>
+      </c>
       <c r="AG28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
@@ -3796,16 +3876,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -3814,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
         <v>25</v>
@@ -3847,35 +3927,38 @@
         <v>31</v>
       </c>
       <c r="T29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U29">
         <v>60</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE29">
         <v>1</v>
       </c>
+      <c r="AF29" t="s">
+        <v>163</v>
+      </c>
       <c r="AG29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
@@ -3883,16 +3966,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -3901,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
         <v>25</v>
@@ -3934,19 +4017,19 @@
         <v>31</v>
       </c>
       <c r="T30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U30">
         <v>60</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>32</v>
@@ -3956,13 +4039,16 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE30">
         <v>1</v>
       </c>
+      <c r="AF30" t="s">
+        <v>163</v>
+      </c>
       <c r="AG30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
@@ -3970,16 +4056,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -3988,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -4021,19 +4107,19 @@
         <v>31</v>
       </c>
       <c r="T31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U31">
         <v>60</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y31" s="5" t="s">
         <v>32</v>
@@ -4043,13 +4129,16 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
+      <c r="AF31" t="s">
+        <v>163</v>
+      </c>
       <c r="AG31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
@@ -4057,16 +4146,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -4075,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K32" t="s">
         <v>25</v>
@@ -4108,19 +4197,19 @@
         <v>31</v>
       </c>
       <c r="T32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U32">
         <v>60</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y32" s="5" t="s">
         <v>32</v>
@@ -4130,13 +4219,16 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE32">
         <v>1</v>
       </c>
+      <c r="AF32" t="s">
+        <v>163</v>
+      </c>
       <c r="AG32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
@@ -4144,16 +4236,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -4162,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K33" t="s">
         <v>25</v>
@@ -4195,19 +4287,19 @@
         <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U33">
         <v>60</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y33" s="5" t="s">
         <v>32</v>
@@ -4217,13 +4309,16 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE33">
         <v>1</v>
       </c>
+      <c r="AF33" t="s">
+        <v>163</v>
+      </c>
       <c r="AG33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
@@ -4231,28 +4326,28 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
         <v>61</v>
-      </c>
-      <c r="E34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" t="s">
-        <v>65</v>
       </c>
       <c r="K34" t="s">
         <v>25</v>
@@ -4282,19 +4377,19 @@
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U34">
         <v>60</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y34" s="5" t="s">
         <v>32</v>
@@ -4304,13 +4399,16 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE34">
         <v>1</v>
       </c>
+      <c r="AF34" t="s">
+        <v>163</v>
+      </c>
       <c r="AG34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
@@ -4318,16 +4416,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -4336,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
         <v>25</v>
@@ -4369,19 +4467,19 @@
         <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U35">
         <v>60</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y35" s="5" t="s">
         <v>32</v>
@@ -4391,13 +4489,16 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE35">
         <v>1</v>
       </c>
+      <c r="AF35" t="s">
+        <v>163</v>
+      </c>
       <c r="AG35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
@@ -4405,16 +4506,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -4423,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K36" t="s">
         <v>25</v>
@@ -4456,19 +4557,19 @@
         <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U36">
         <v>60</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y36" s="5" t="s">
         <v>32</v>
@@ -4478,13 +4579,16 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE36">
         <v>1</v>
       </c>
+      <c r="AF36" t="s">
+        <v>163</v>
+      </c>
       <c r="AG36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
@@ -4492,16 +4596,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -4510,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
         <v>25</v>
@@ -4543,19 +4647,19 @@
         <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U37">
         <v>60</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y37" s="5" t="s">
         <v>32</v>
@@ -4565,13 +4669,16 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AE37">
         <v>1</v>
       </c>
+      <c r="AF37" t="s">
+        <v>163</v>
+      </c>
       <c r="AG37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
@@ -4637,11 +4744,31 @@
     <hyperlink ref="AB27" r:id="rId52" xr:uid="{D8BCB0C1-DF75-4E29-B93B-EF968D7E3080}"/>
     <hyperlink ref="AC27" r:id="rId53" xr:uid="{9BE37098-3F2D-4867-8485-F3892A399D4C}"/>
     <hyperlink ref="D27" r:id="rId54" xr:uid="{464BB1B6-6CAC-4EAC-A8A3-465A5377101D}"/>
-    <hyperlink ref="AB9" r:id="rId55" xr:uid="{2ABF1249-0C77-4416-B7DE-11287349008D}"/>
-    <hyperlink ref="AC9" r:id="rId56" xr:uid="{C14D304C-0EB0-466A-849D-D95DE7B7C6E7}"/>
-    <hyperlink ref="D9" r:id="rId57" xr:uid="{4EB3CF80-8AB0-47F0-8C9B-0C7EF935742D}"/>
+    <hyperlink ref="D11" r:id="rId55" xr:uid="{6D8CDADA-5271-4219-847F-0E8431171C73}"/>
+    <hyperlink ref="D12" r:id="rId56" xr:uid="{57EB100C-50FD-4FC3-9578-BF6D3CE6EBD0}"/>
+    <hyperlink ref="AB12" r:id="rId57" xr:uid="{D3B67658-2566-4E80-825C-5385CCCD6C3E}"/>
+    <hyperlink ref="AC12" r:id="rId58" xr:uid="{9A4C100F-F57B-400D-AAFD-A00AA9322487}"/>
+    <hyperlink ref="D13" r:id="rId59" xr:uid="{9112640B-9251-494B-8302-D97A8083BA43}"/>
+    <hyperlink ref="AB13" r:id="rId60" xr:uid="{8ED33307-2765-44C0-B0B4-178E2A3DEAD3}"/>
+    <hyperlink ref="AC13" r:id="rId61" xr:uid="{6A8FAB69-618A-4D4B-B018-A32F4704CBE4}"/>
+    <hyperlink ref="D15:D17" r:id="rId62" display="tutor55@nkt.com" xr:uid="{87056C5F-8EB9-4D18-92A4-67EE47EEE0C8}"/>
+    <hyperlink ref="AB15:AB17" r:id="rId63" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{94AEF882-1979-4EF1-B02C-F2A7F30FC939}"/>
+    <hyperlink ref="AC15:AC17" r:id="rId64" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{79F158CA-BF6F-4569-8C86-8119EDE35616}"/>
+    <hyperlink ref="D15" r:id="rId65" xr:uid="{D0542024-87AA-49FA-9C5A-432F3085AFB1}"/>
+    <hyperlink ref="D16" r:id="rId66" xr:uid="{2BDD0D60-9D2C-4C8D-A5A9-7238C6E0C4F3}"/>
+    <hyperlink ref="AB16" r:id="rId67" xr:uid="{C00EEBEB-9C30-4E1A-80B2-338722BAC866}"/>
+    <hyperlink ref="AC16" r:id="rId68" xr:uid="{4154293F-DE08-466D-9F94-800344BC8CF9}"/>
+    <hyperlink ref="D17" r:id="rId69" xr:uid="{53A29182-632D-499C-AC6D-F23FCD831875}"/>
+    <hyperlink ref="AB17" r:id="rId70" xr:uid="{C4571A65-F4BB-4D18-89D0-AE93F0FADCF4}"/>
+    <hyperlink ref="AC17" r:id="rId71" xr:uid="{A9188572-C1CE-4220-8810-3ACEFDF60929}"/>
+    <hyperlink ref="AB7" r:id="rId72" xr:uid="{AA36DA8B-0D07-45C9-9C04-CDB3CC4735F7}"/>
+    <hyperlink ref="AC7" r:id="rId73" xr:uid="{AC896A7A-85B5-4507-A336-83C3376FB5F6}"/>
+    <hyperlink ref="E7" r:id="rId74" xr:uid="{D6FAC69D-F1E1-4BF4-A11A-DA0D4A77F8EE}"/>
+    <hyperlink ref="AB9" r:id="rId75" xr:uid="{B5330DA6-94C8-4B50-8841-9A9BE05ED977}"/>
+    <hyperlink ref="AC9" r:id="rId76" xr:uid="{5C7E5BCC-6D93-4034-A439-2FCECCD82BAE}"/>
+    <hyperlink ref="E9" r:id="rId77" xr:uid="{3A3EE9D3-84C3-44FB-8C39-110FB0CE7C81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId58"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908E583-4480-4E59-91CE-6C3221FAA91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77616CB9-FCAE-46E8-9AC0-71215C44FD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="187">
   <si>
     <t>password</t>
   </si>
@@ -562,9 +562,6 @@
     <t>sess class multi 10/01 - 28/01</t>
   </si>
   <si>
-    <t>clarinet session 5</t>
-  </si>
-  <si>
     <t>intermediate</t>
   </si>
   <si>
@@ -577,13 +574,19 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>clarinet MF 5</t>
-  </si>
-  <si>
-    <t>11/01/2023</t>
-  </si>
-  <si>
-    <t>clarinet MV 5</t>
+    <t>clarinet session 6</t>
+  </si>
+  <si>
+    <t>12/01/2023</t>
+  </si>
+  <si>
+    <t>clarinet MF 6 multi</t>
+  </si>
+  <si>
+    <t>clarinet MV 6 multi</t>
+  </si>
+  <si>
+    <t>Monday,Tuesday,Wednesday</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1000,7 @@
   <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1288,7 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N3" t="s">
         <v>71</v>
@@ -1386,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N4" t="s">
         <v>71</v>
@@ -1475,7 +1478,7 @@
         <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
         <v>74</v>
@@ -1487,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
@@ -1499,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R5">
         <v>12</v>
@@ -1520,7 +1523,7 @@
         <v>37</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>166</v>
@@ -1677,7 +1680,7 @@
         <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -1689,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -1701,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R7">
         <v>12</v>
@@ -1710,7 +1713,7 @@
         <v>100</v>
       </c>
       <c r="T7" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1722,7 +1725,7 @@
         <v>37</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>166</v>
@@ -1858,7 +1861,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
@@ -1891,7 +1894,7 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N9" t="s">
         <v>33</v>
@@ -1903,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R9">
         <v>12</v>
@@ -1912,7 +1915,7 @@
         <v>100</v>
       </c>
       <c r="T9" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1924,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>166</v>

--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77616CB9-FCAE-46E8-9AC0-71215C44FD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0ED420-44CB-4AC1-98D3-C0081AA13ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_class" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="161">
   <si>
     <t>password</t>
   </si>
@@ -118,21 +116,9 @@
     <t>start_time1</t>
   </si>
   <si>
-    <t>6,8</t>
-  </si>
-  <si>
-    <t>every_week</t>
-  </si>
-  <si>
-    <t>30/11/2021</t>
-  </si>
-  <si>
     <t>in_person</t>
   </si>
   <si>
-    <t>Fremont , CA</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -151,81 +137,9 @@
     <t>08:00 pm</t>
   </si>
   <si>
-    <t>20/09/2021</t>
-  </si>
-  <si>
-    <t>david@nurtem.com</t>
-  </si>
-  <si>
-    <t>David@1234</t>
-  </si>
-  <si>
-    <t>basketball</t>
-  </si>
-  <si>
     <t>saturday</t>
   </si>
   <si>
-    <t>The intent of this course is help anyone improve their basketball skills by going through a series of basketball drills.</t>
-  </si>
-  <si>
-    <t>dillon@nurtem.com</t>
-  </si>
-  <si>
-    <t>Dillon@1234</t>
-  </si>
-  <si>
-    <t>08:30 am</t>
-  </si>
-  <si>
-    <t>09:30 am</t>
-  </si>
-  <si>
-    <t>Saturday David 9:30</t>
-  </si>
-  <si>
-    <t>10:30 am</t>
-  </si>
-  <si>
-    <t>Saturday Dillon 9:30</t>
-  </si>
-  <si>
-    <t>Saturday David 10:30</t>
-  </si>
-  <si>
-    <t>11:30 am</t>
-  </si>
-  <si>
-    <t>Saturday Dillon 10:30</t>
-  </si>
-  <si>
-    <t>tejas@nurtem.com</t>
-  </si>
-  <si>
-    <t>Tejas@1234</t>
-  </si>
-  <si>
-    <t>Sunday Tejas 8:30</t>
-  </si>
-  <si>
-    <t>Sunday Dillon 8:30</t>
-  </si>
-  <si>
-    <t>Sunday Tejas 9:30</t>
-  </si>
-  <si>
-    <t>Sunday Dillon 9:30</t>
-  </si>
-  <si>
-    <t>Sunday Tejas 10:30</t>
-  </si>
-  <si>
-    <t>Sunday Dillon 10:30</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
     <t>Monthly_type</t>
   </si>
   <si>
@@ -331,12 +245,6 @@
     <t>Every week</t>
   </si>
   <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>srinivasesaivanan6324@gmail.com</t>
-  </si>
-  <si>
     <t>24/11/2022</t>
   </si>
   <si>
@@ -373,9 +281,6 @@
     <t>Painting</t>
   </si>
   <si>
-    <t>paint sess 1</t>
-  </si>
-  <si>
     <t>individual</t>
   </si>
   <si>
@@ -559,9 +464,6 @@
     <t>D:\test\picturesprofile1\bharat3.jpg</t>
   </si>
   <si>
-    <t>sess class multi 10/01 - 28/01</t>
-  </si>
-  <si>
     <t>intermediate</t>
   </si>
   <si>
@@ -574,19 +476,37 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>clarinet session 6</t>
-  </si>
-  <si>
-    <t>12/01/2023</t>
-  </si>
-  <si>
-    <t>clarinet MF 6 multi</t>
-  </si>
-  <si>
-    <t>clarinet MV 6 multi</t>
-  </si>
-  <si>
-    <t>Monday,Tuesday,Wednesday</t>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>tutor60@nkt.com</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>21/01/2023</t>
+  </si>
+  <si>
+    <t>Pilot sess 6</t>
+  </si>
+  <si>
+    <t>Pilot MV 6</t>
+  </si>
+  <si>
+    <t>Pilot MF 6</t>
+  </si>
+  <si>
+    <t>26/01/2023</t>
+  </si>
+  <si>
+    <t>sess class multi 26/01 - 28/01</t>
+  </si>
+  <si>
+    <t>mv class multi 26/01 - 28/03</t>
+  </si>
+  <si>
+    <t>mf class multi 26/01 - 28/04</t>
   </si>
 </sst>
 </file>
@@ -997,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -1068,7 +988,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1083,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
         <v>23</v>
@@ -1116,16 +1036,16 @@
         <v>16</v>
       </c>
       <c r="Z1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s">
         <v>3</v>
@@ -1134,19 +1054,19 @@
         <v>17</v>
       </c>
       <c r="AF1" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AG1" t="s">
         <v>5</v>
       </c>
       <c r="AH1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AJ1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="AK1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
@@ -1154,16 +1074,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F2" s="8">
         <v>2</v>
@@ -1172,13 +1092,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1187,67 +1107,67 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R2">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="AE2">
         <v>10</v>
       </c>
       <c r="AF2" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -1255,16 +1175,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -1273,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -1288,67 +1208,67 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="R3">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="AE3">
         <v>10</v>
       </c>
       <c r="AF3" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG3" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
@@ -1356,16 +1276,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -1374,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -1389,67 +1309,67 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R4">
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD4" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="AE4">
         <v>4</v>
       </c>
       <c r="AF4" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG4" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -1457,16 +1377,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>102</v>
+      <c r="D5" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1475,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -1490,67 +1410,67 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="R5">
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD5" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="AE5">
         <v>4</v>
       </c>
       <c r="AF5" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG5" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -1558,31 +1478,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -1591,67 +1511,67 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R6">
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AE6">
         <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -1664,11 +1584,11 @@
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>102</v>
+      <c r="D7" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8">
         <v>2</v>
@@ -1677,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -1692,67 +1612,67 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="R7">
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="AE7">
         <v>4</v>
       </c>
       <c r="AF7" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -1760,16 +1680,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1778,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" t="s">
-        <v>115</v>
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -1796,64 +1716,64 @@
         <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R8">
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U8">
         <v>60</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AA8" s="5" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AE8">
         <v>4</v>
       </c>
       <c r="AF8" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -1861,31 +1781,31 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>102</v>
+      <c r="D9" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -1894,67 +1814,67 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="R9">
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD9" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="AE9">
         <v>4</v>
       </c>
       <c r="AF9" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -1962,16 +1882,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1980,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -1998,64 +1918,64 @@
         <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R10">
         <v>12</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U10">
         <v>60</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="AA10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD10" t="s">
         <v>118</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>149</v>
       </c>
       <c r="AE10">
         <v>4</v>
       </c>
       <c r="AF10" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -2063,16 +1983,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2081,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -2099,64 +2019,64 @@
         <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R11">
         <v>12</v>
       </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="U11">
         <v>60</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AA11" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD11" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AE11">
         <v>4</v>
       </c>
       <c r="AF11" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG11" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -2164,16 +2084,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -2182,13 +2102,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -2200,64 +2120,64 @@
         <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R12">
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U12">
         <v>60</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AA12" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD12" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AE12">
         <v>4</v>
       </c>
       <c r="AF12" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG12" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -2265,16 +2185,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -2283,13 +2203,13 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -2301,64 +2221,64 @@
         <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U13">
         <v>60</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AA13" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AB13" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD13" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AE13">
         <v>4</v>
       </c>
       <c r="AF13" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -2366,16 +2286,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -2384,13 +2304,13 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -2402,64 +2322,64 @@
         <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R14">
         <v>12</v>
       </c>
       <c r="S14" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U14">
         <v>60</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="AA14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD14" t="s">
         <v>118</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>149</v>
       </c>
       <c r="AE14">
         <v>4</v>
       </c>
       <c r="AF14" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -2467,16 +2387,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2485,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2503,64 +2423,64 @@
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R15">
         <v>12</v>
       </c>
       <c r="S15" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U15">
         <v>60</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AA15" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD15" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AE15">
         <v>4</v>
       </c>
       <c r="AF15" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG15" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -2568,16 +2488,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -2586,16 +2506,16 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2604,64 +2524,64 @@
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R16">
         <v>12</v>
       </c>
       <c r="S16" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U16">
         <v>60</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AA16" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD16" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AE16">
         <v>4</v>
       </c>
       <c r="AF16" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG16" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -2669,16 +2589,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -2687,16 +2607,16 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2705,64 +2625,64 @@
         <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R17">
         <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U17">
         <v>60</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AA17" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD17" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AE17">
         <v>4</v>
       </c>
       <c r="AF17" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG17" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -2770,16 +2690,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -2788,13 +2708,13 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
@@ -2806,64 +2726,64 @@
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R18">
         <v>12</v>
       </c>
       <c r="S18" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U18">
         <v>60</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="AA18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD18" t="s">
         <v>118</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>149</v>
       </c>
       <c r="AE18">
         <v>4</v>
       </c>
       <c r="AF18" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG18" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -2871,16 +2791,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -2889,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
         <v>25</v>
@@ -2907,64 +2827,64 @@
         <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O19" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R19">
         <v>12</v>
       </c>
       <c r="S19" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="AA19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD19" t="s">
         <v>118</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>149</v>
       </c>
       <c r="AE19">
         <v>4</v>
       </c>
       <c r="AF19" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG19" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -2972,16 +2892,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2990,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
@@ -3008,64 +2928,64 @@
         <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R20">
         <v>12</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U20">
         <v>60</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="AA20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD20" t="s">
         <v>118</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>149</v>
       </c>
       <c r="AE20">
         <v>4</v>
       </c>
       <c r="AF20" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG20" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -3073,16 +2993,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3091,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
@@ -3109,64 +3029,64 @@
         <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O21" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R21">
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U21">
         <v>60</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="AA21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" t="s">
         <v>118</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>149</v>
       </c>
       <c r="AE21">
         <v>4</v>
       </c>
       <c r="AF21" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG21" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
@@ -3174,16 +3094,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3192,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
@@ -3210,64 +3130,64 @@
         <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O22" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R22">
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U22">
         <v>60</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="AA22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD22" t="s">
         <v>118</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>149</v>
       </c>
       <c r="AE22">
         <v>4</v>
       </c>
       <c r="AF22" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG22" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -3275,16 +3195,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3293,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
@@ -3311,64 +3231,64 @@
         <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O23" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R23">
         <v>12</v>
       </c>
       <c r="S23" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U23">
         <v>60</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="AA23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD23" t="s">
         <v>118</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>149</v>
       </c>
       <c r="AE23">
         <v>4</v>
       </c>
       <c r="AF23" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG23" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
@@ -3376,16 +3296,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3394,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
@@ -3412,64 +3332,64 @@
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O24" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R24">
         <v>12</v>
       </c>
       <c r="S24" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U24">
         <v>60</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X24" s="2" t="s">
+      <c r="AA24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD24" t="s">
         <v>118</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>149</v>
       </c>
       <c r="AE24">
         <v>4</v>
       </c>
       <c r="AF24" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG24" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
@@ -3477,16 +3397,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -3495,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
@@ -3513,64 +3433,64 @@
         <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O25" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R25">
         <v>12</v>
       </c>
       <c r="S25" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U25">
         <v>60</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="AA25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD25" t="s">
         <v>118</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>149</v>
       </c>
       <c r="AE25">
         <v>4</v>
       </c>
       <c r="AF25" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG25" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
@@ -3578,16 +3498,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -3596,13 +3516,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s">
         <v>25</v>
@@ -3614,64 +3534,64 @@
         <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R26">
         <v>12</v>
       </c>
       <c r="S26" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U26">
         <v>60</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X26" s="2" t="s">
+      <c r="AA26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD26" t="s">
         <v>118</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>149</v>
       </c>
       <c r="AE26">
         <v>4</v>
       </c>
       <c r="AF26" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG26" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
@@ -3679,16 +3599,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -3697,13 +3617,13 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
@@ -3715,1063 +3635,145 @@
         <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O27" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="R27">
         <v>12</v>
       </c>
       <c r="S27" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="U27">
         <v>60</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z27" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AA27" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AD27" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="AE27">
         <v>4</v>
       </c>
       <c r="AF27" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AG27" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="AI27" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="AJ27" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="AK27" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-      <c r="M28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" t="s">
-        <v>34</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28">
-        <v>12</v>
-      </c>
-      <c r="S28" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" t="s">
-        <v>45</v>
-      </c>
-      <c r="U28">
-        <v>60</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>46</v>
-      </c>
+      <c r="X28" s="5"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="M29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29">
-        <v>12</v>
-      </c>
-      <c r="S29" t="s">
-        <v>31</v>
-      </c>
-      <c r="T29" t="s">
-        <v>45</v>
-      </c>
-      <c r="U29">
-        <v>60</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" t="s">
-        <v>34</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30">
-        <v>12</v>
-      </c>
-      <c r="S30" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" t="s">
-        <v>45</v>
-      </c>
-      <c r="U30">
-        <v>60</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
-      <c r="M31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" t="s">
-        <v>34</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31">
-        <v>12</v>
-      </c>
-      <c r="S31" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" t="s">
-        <v>45</v>
-      </c>
-      <c r="U31">
-        <v>60</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32">
-        <v>10</v>
-      </c>
-      <c r="M32" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" t="s">
-        <v>34</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R32">
-        <v>12</v>
-      </c>
-      <c r="S32" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" t="s">
-        <v>65</v>
-      </c>
-      <c r="U32">
-        <v>60</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33">
-        <v>10</v>
-      </c>
-      <c r="M33" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R33">
-        <v>12</v>
-      </c>
-      <c r="S33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T33" t="s">
-        <v>65</v>
-      </c>
-      <c r="U33">
-        <v>60</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-      <c r="K34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
-      <c r="M34" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R34">
-        <v>12</v>
-      </c>
-      <c r="S34" t="s">
-        <v>31</v>
-      </c>
-      <c r="T34" t="s">
-        <v>65</v>
-      </c>
-      <c r="U34">
-        <v>60</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
-      <c r="M35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R35">
-        <v>12</v>
-      </c>
-      <c r="S35" t="s">
-        <v>31</v>
-      </c>
-      <c r="T35" t="s">
-        <v>65</v>
-      </c>
-      <c r="U35">
-        <v>60</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36">
-        <v>10</v>
-      </c>
-      <c r="M36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" t="s">
-        <v>33</v>
-      </c>
-      <c r="O36" t="s">
-        <v>34</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R36">
-        <v>12</v>
-      </c>
-      <c r="S36" t="s">
-        <v>31</v>
-      </c>
-      <c r="T36" t="s">
-        <v>65</v>
-      </c>
-      <c r="U36">
-        <v>60</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37">
-        <v>10</v>
-      </c>
-      <c r="M37" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" t="s">
-        <v>34</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R37">
-        <v>12</v>
-      </c>
-      <c r="S37" t="s">
-        <v>31</v>
-      </c>
-      <c r="T37" t="s">
-        <v>65</v>
-      </c>
-      <c r="U37">
-        <v>60</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE37">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="X38" s="5"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="X39" s="5"/>
+      <c r="X29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E29" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D30" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E34" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AC2" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AB2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AB3:AB6" r:id="rId20" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AC3:AC6" r:id="rId21" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AB5" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AC5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E5" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D4" r:id="rId25" xr:uid="{EB5C1933-A693-4A7B-834C-1E0340C4F4FD}"/>
-    <hyperlink ref="AB6" r:id="rId26" xr:uid="{A168F9FD-2018-4ED2-A2F1-50BD9FE3602D}"/>
-    <hyperlink ref="AC6" r:id="rId27" xr:uid="{FEEAB1EA-42A3-41A6-89A6-D30F74365A0D}"/>
-    <hyperlink ref="D6" r:id="rId28" xr:uid="{32B004B3-8822-435A-9F5C-4AB8DF713462}"/>
-    <hyperlink ref="D8" r:id="rId29" xr:uid="{702E2787-F624-4680-9DC6-D2050EAFE594}"/>
-    <hyperlink ref="D9:D14" r:id="rId30" display="tutor55@nkt.com" xr:uid="{281645EC-A69B-4AC0-8663-DC29178D29D5}"/>
-    <hyperlink ref="AB7:AB17" r:id="rId31" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{F18B90ED-0A21-4C53-A5AC-91EEE8564E62}"/>
-    <hyperlink ref="AC7:AC17" r:id="rId32" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{B93870E1-4378-490D-8C0B-0DD8CF751077}"/>
-    <hyperlink ref="D15:D26" r:id="rId33" display="tutor55@nkt.com" xr:uid="{E9BB2F3B-3F13-4E18-A366-8C6440A876A9}"/>
-    <hyperlink ref="AB18" r:id="rId34" xr:uid="{9EC56171-560B-4BA4-98C1-1CE40E0FED81}"/>
-    <hyperlink ref="AB19" r:id="rId35" xr:uid="{078900D6-4B13-4BDA-BFB3-1C5E2AD31948}"/>
-    <hyperlink ref="AB20" r:id="rId36" xr:uid="{9AEC5DC4-7BC0-42F8-8440-7C87CF12D237}"/>
-    <hyperlink ref="AB21" r:id="rId37" xr:uid="{83E21E58-36B9-4CF7-86A2-E99E7B5AB79F}"/>
-    <hyperlink ref="AB22" r:id="rId38" xr:uid="{79C38FDC-014F-4466-8D8F-05D852C2F845}"/>
-    <hyperlink ref="AB23" r:id="rId39" xr:uid="{A495C8D5-2F47-4CEC-A4B9-55A5926A9F81}"/>
-    <hyperlink ref="AB24" r:id="rId40" xr:uid="{96005754-A607-4A74-94CF-AA9270154A8E}"/>
-    <hyperlink ref="AB25" r:id="rId41" xr:uid="{1E1B5F98-EC54-4B1B-8C0D-D15E6372FA10}"/>
-    <hyperlink ref="AB26" r:id="rId42" xr:uid="{0B9A8CA5-80DE-4D60-AB88-32E5BB69CAF4}"/>
-    <hyperlink ref="AC18" r:id="rId43" xr:uid="{A21F30C5-80FE-4DF3-9F1D-241D8BB1BFF4}"/>
-    <hyperlink ref="AC19" r:id="rId44" xr:uid="{0501E205-A1D5-4617-B18E-CB65CC0D768E}"/>
-    <hyperlink ref="AC20" r:id="rId45" xr:uid="{7771F8C8-735F-4850-9545-0F032E643F31}"/>
-    <hyperlink ref="AC21" r:id="rId46" xr:uid="{84297468-F93D-4596-B305-9589BC037597}"/>
-    <hyperlink ref="AC22" r:id="rId47" xr:uid="{8B8B5F4B-EC4C-452D-B0D7-114A4DCFC798}"/>
-    <hyperlink ref="AC23" r:id="rId48" xr:uid="{BDEED673-4503-412E-BA98-A2C45E1660DC}"/>
-    <hyperlink ref="AC24" r:id="rId49" xr:uid="{D767F43D-6586-4AFB-A54C-57593C7AF4FA}"/>
-    <hyperlink ref="AC25" r:id="rId50" xr:uid="{58D78D26-529A-40D3-899A-CBB7C3926060}"/>
-    <hyperlink ref="AC26" r:id="rId51" xr:uid="{FB41551C-EC23-4427-901C-00C49F89F2A2}"/>
-    <hyperlink ref="AB27" r:id="rId52" xr:uid="{D8BCB0C1-DF75-4E29-B93B-EF968D7E3080}"/>
-    <hyperlink ref="AC27" r:id="rId53" xr:uid="{9BE37098-3F2D-4867-8485-F3892A399D4C}"/>
-    <hyperlink ref="D27" r:id="rId54" xr:uid="{464BB1B6-6CAC-4EAC-A8A3-465A5377101D}"/>
-    <hyperlink ref="D11" r:id="rId55" xr:uid="{6D8CDADA-5271-4219-847F-0E8431171C73}"/>
-    <hyperlink ref="D12" r:id="rId56" xr:uid="{57EB100C-50FD-4FC3-9578-BF6D3CE6EBD0}"/>
-    <hyperlink ref="AB12" r:id="rId57" xr:uid="{D3B67658-2566-4E80-825C-5385CCCD6C3E}"/>
-    <hyperlink ref="AC12" r:id="rId58" xr:uid="{9A4C100F-F57B-400D-AAFD-A00AA9322487}"/>
-    <hyperlink ref="D13" r:id="rId59" xr:uid="{9112640B-9251-494B-8302-D97A8083BA43}"/>
-    <hyperlink ref="AB13" r:id="rId60" xr:uid="{8ED33307-2765-44C0-B0B4-178E2A3DEAD3}"/>
-    <hyperlink ref="AC13" r:id="rId61" xr:uid="{6A8FAB69-618A-4D4B-B018-A32F4704CBE4}"/>
-    <hyperlink ref="D15:D17" r:id="rId62" display="tutor55@nkt.com" xr:uid="{87056C5F-8EB9-4D18-92A4-67EE47EEE0C8}"/>
-    <hyperlink ref="AB15:AB17" r:id="rId63" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{94AEF882-1979-4EF1-B02C-F2A7F30FC939}"/>
-    <hyperlink ref="AC15:AC17" r:id="rId64" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{79F158CA-BF6F-4569-8C86-8119EDE35616}"/>
-    <hyperlink ref="D15" r:id="rId65" xr:uid="{D0542024-87AA-49FA-9C5A-432F3085AFB1}"/>
-    <hyperlink ref="D16" r:id="rId66" xr:uid="{2BDD0D60-9D2C-4C8D-A5A9-7238C6E0C4F3}"/>
-    <hyperlink ref="AB16" r:id="rId67" xr:uid="{C00EEBEB-9C30-4E1A-80B2-338722BAC866}"/>
-    <hyperlink ref="AC16" r:id="rId68" xr:uid="{4154293F-DE08-466D-9F94-800344BC8CF9}"/>
-    <hyperlink ref="D17" r:id="rId69" xr:uid="{53A29182-632D-499C-AC6D-F23FCD831875}"/>
-    <hyperlink ref="AB17" r:id="rId70" xr:uid="{C4571A65-F4BB-4D18-89D0-AE93F0FADCF4}"/>
-    <hyperlink ref="AC17" r:id="rId71" xr:uid="{A9188572-C1CE-4220-8810-3ACEFDF60929}"/>
-    <hyperlink ref="AB7" r:id="rId72" xr:uid="{AA36DA8B-0D07-45C9-9C04-CDB3CC4735F7}"/>
-    <hyperlink ref="AC7" r:id="rId73" xr:uid="{AC896A7A-85B5-4507-A336-83C3376FB5F6}"/>
-    <hyperlink ref="E7" r:id="rId74" xr:uid="{D6FAC69D-F1E1-4BF4-A11A-DA0D4A77F8EE}"/>
-    <hyperlink ref="AB9" r:id="rId75" xr:uid="{B5330DA6-94C8-4B50-8841-9A9BE05ED977}"/>
-    <hyperlink ref="AC9" r:id="rId76" xr:uid="{5C7E5BCC-6D93-4034-A439-2FCECCD82BAE}"/>
-    <hyperlink ref="E9" r:id="rId77" xr:uid="{3A3EE9D3-84C3-44FB-8C39-110FB0CE7C81}"/>
+    <hyperlink ref="AC2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AB2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AB3:AB9" r:id="rId3" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AC3:AC9" r:id="rId4" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AB5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AC5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{EB5C1933-A693-4A7B-834C-1E0340C4F4FD}"/>
+    <hyperlink ref="AB9" r:id="rId8" xr:uid="{A168F9FD-2018-4ED2-A2F1-50BD9FE3602D}"/>
+    <hyperlink ref="AC9" r:id="rId9" xr:uid="{FEEAB1EA-42A3-41A6-89A6-D30F74365A0D}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{32B004B3-8822-435A-9F5C-4AB8DF713462}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{702E2787-F624-4680-9DC6-D2050EAFE594}"/>
+    <hyperlink ref="AB7:AB17" r:id="rId12" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{F18B90ED-0A21-4C53-A5AC-91EEE8564E62}"/>
+    <hyperlink ref="AC7:AC17" r:id="rId13" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{B93870E1-4378-490D-8C0B-0DD8CF751077}"/>
+    <hyperlink ref="D15:D26" r:id="rId14" display="tutor55@nkt.com" xr:uid="{E9BB2F3B-3F13-4E18-A366-8C6440A876A9}"/>
+    <hyperlink ref="AB18" r:id="rId15" xr:uid="{9EC56171-560B-4BA4-98C1-1CE40E0FED81}"/>
+    <hyperlink ref="AB19" r:id="rId16" xr:uid="{078900D6-4B13-4BDA-BFB3-1C5E2AD31948}"/>
+    <hyperlink ref="AB20" r:id="rId17" xr:uid="{9AEC5DC4-7BC0-42F8-8440-7C87CF12D237}"/>
+    <hyperlink ref="AB21" r:id="rId18" xr:uid="{83E21E58-36B9-4CF7-86A2-E99E7B5AB79F}"/>
+    <hyperlink ref="AB22" r:id="rId19" xr:uid="{79C38FDC-014F-4466-8D8F-05D852C2F845}"/>
+    <hyperlink ref="AB23" r:id="rId20" xr:uid="{A495C8D5-2F47-4CEC-A4B9-55A5926A9F81}"/>
+    <hyperlink ref="AB24" r:id="rId21" xr:uid="{96005754-A607-4A74-94CF-AA9270154A8E}"/>
+    <hyperlink ref="AB25" r:id="rId22" xr:uid="{1E1B5F98-EC54-4B1B-8C0D-D15E6372FA10}"/>
+    <hyperlink ref="AB26" r:id="rId23" xr:uid="{0B9A8CA5-80DE-4D60-AB88-32E5BB69CAF4}"/>
+    <hyperlink ref="AC18" r:id="rId24" xr:uid="{A21F30C5-80FE-4DF3-9F1D-241D8BB1BFF4}"/>
+    <hyperlink ref="AC19" r:id="rId25" xr:uid="{0501E205-A1D5-4617-B18E-CB65CC0D768E}"/>
+    <hyperlink ref="AC20" r:id="rId26" xr:uid="{7771F8C8-735F-4850-9545-0F032E643F31}"/>
+    <hyperlink ref="AC21" r:id="rId27" xr:uid="{84297468-F93D-4596-B305-9589BC037597}"/>
+    <hyperlink ref="AC22" r:id="rId28" xr:uid="{8B8B5F4B-EC4C-452D-B0D7-114A4DCFC798}"/>
+    <hyperlink ref="AC23" r:id="rId29" xr:uid="{BDEED673-4503-412E-BA98-A2C45E1660DC}"/>
+    <hyperlink ref="AC24" r:id="rId30" xr:uid="{D767F43D-6586-4AFB-A54C-57593C7AF4FA}"/>
+    <hyperlink ref="AC25" r:id="rId31" xr:uid="{58D78D26-529A-40D3-899A-CBB7C3926060}"/>
+    <hyperlink ref="AC26" r:id="rId32" xr:uid="{FB41551C-EC23-4427-901C-00C49F89F2A2}"/>
+    <hyperlink ref="AB27" r:id="rId33" xr:uid="{D8BCB0C1-DF75-4E29-B93B-EF968D7E3080}"/>
+    <hyperlink ref="AC27" r:id="rId34" xr:uid="{9BE37098-3F2D-4867-8485-F3892A399D4C}"/>
+    <hyperlink ref="D27" r:id="rId35" xr:uid="{464BB1B6-6CAC-4EAC-A8A3-465A5377101D}"/>
+    <hyperlink ref="D11" r:id="rId36" xr:uid="{6D8CDADA-5271-4219-847F-0E8431171C73}"/>
+    <hyperlink ref="D12" r:id="rId37" xr:uid="{57EB100C-50FD-4FC3-9578-BF6D3CE6EBD0}"/>
+    <hyperlink ref="AB12" r:id="rId38" xr:uid="{D3B67658-2566-4E80-825C-5385CCCD6C3E}"/>
+    <hyperlink ref="AC12" r:id="rId39" xr:uid="{9A4C100F-F57B-400D-AAFD-A00AA9322487}"/>
+    <hyperlink ref="D13" r:id="rId40" xr:uid="{9112640B-9251-494B-8302-D97A8083BA43}"/>
+    <hyperlink ref="AB13" r:id="rId41" xr:uid="{8ED33307-2765-44C0-B0B4-178E2A3DEAD3}"/>
+    <hyperlink ref="AC13" r:id="rId42" xr:uid="{6A8FAB69-618A-4D4B-B018-A32F4704CBE4}"/>
+    <hyperlink ref="D15:D17" r:id="rId43" display="tutor55@nkt.com" xr:uid="{87056C5F-8EB9-4D18-92A4-67EE47EEE0C8}"/>
+    <hyperlink ref="AB15:AB17" r:id="rId44" display="https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade" xr:uid="{94AEF882-1979-4EF1-B02C-F2A7F30FC939}"/>
+    <hyperlink ref="AC15:AC17" r:id="rId45" display="https://test.nurtem.com/Packages/singleproduct/190/data-science" xr:uid="{79F158CA-BF6F-4569-8C86-8119EDE35616}"/>
+    <hyperlink ref="D15" r:id="rId46" xr:uid="{D0542024-87AA-49FA-9C5A-432F3085AFB1}"/>
+    <hyperlink ref="D16" r:id="rId47" xr:uid="{2BDD0D60-9D2C-4C8D-A5A9-7238C6E0C4F3}"/>
+    <hyperlink ref="AB16" r:id="rId48" xr:uid="{C00EEBEB-9C30-4E1A-80B2-338722BAC866}"/>
+    <hyperlink ref="AC16" r:id="rId49" xr:uid="{4154293F-DE08-466D-9F94-800344BC8CF9}"/>
+    <hyperlink ref="D17" r:id="rId50" xr:uid="{53A29182-632D-499C-AC6D-F23FCD831875}"/>
+    <hyperlink ref="AB17" r:id="rId51" xr:uid="{C4571A65-F4BB-4D18-89D0-AE93F0FADCF4}"/>
+    <hyperlink ref="AC17" r:id="rId52" xr:uid="{A9188572-C1CE-4220-8810-3ACEFDF60929}"/>
+    <hyperlink ref="AB6" r:id="rId53" xr:uid="{AA36DA8B-0D07-45C9-9C04-CDB3CC4735F7}"/>
+    <hyperlink ref="AC6" r:id="rId54" xr:uid="{AC896A7A-85B5-4507-A336-83C3376FB5F6}"/>
+    <hyperlink ref="AB7" r:id="rId55" xr:uid="{B5330DA6-94C8-4B50-8841-9A9BE05ED977}"/>
+    <hyperlink ref="AC7" r:id="rId56" xr:uid="{5C7E5BCC-6D93-4034-A439-2FCECCD82BAE}"/>
+    <hyperlink ref="D5" r:id="rId57" xr:uid="{ABE491DD-B54C-402F-B6AA-EF4F8D389DA9}"/>
+    <hyperlink ref="D6" r:id="rId58" xr:uid="{E571F318-3148-4852-868F-E7E4B8FB68D5}"/>
+    <hyperlink ref="D7" r:id="rId59" xr:uid="{EA8DD766-71C0-402D-9CA8-DC30181F982A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
--- a/TestDataXls/tutor_add_class.xlsx
+++ b/TestDataXls/tutor_add_class.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0ED420-44CB-4AC1-98D3-C0081AA13ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6861112-527D-461B-8113-8242F9CA99A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,6 @@
     <sheet name="add_class" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -188,9 +179,6 @@
     <t>Muthilapet</t>
   </si>
   <si>
-    <t>Mudaliarpet</t>
-  </si>
-  <si>
     <t>2,5</t>
   </si>
   <si>
@@ -488,9 +476,6 @@
     <t>21/01/2023</t>
   </si>
   <si>
-    <t>Pilot sess 6</t>
-  </si>
-  <si>
     <t>Pilot MV 6</t>
   </si>
   <si>
@@ -507,6 +492,12 @@
   </si>
   <si>
     <t>mf class multi 26/01 - 28/04</t>
+  </si>
+  <si>
+    <t>my test2</t>
+  </si>
+  <si>
+    <t>23/02/2023</t>
   </si>
 </sst>
 </file>
@@ -1039,13 +1030,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>61</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>62</v>
       </c>
       <c r="AD1" t="s">
         <v>3</v>
@@ -1054,19 +1045,19 @@
         <v>17</v>
       </c>
       <c r="AF1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG1" t="s">
         <v>5</v>
       </c>
       <c r="AH1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
@@ -1092,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
         <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -1119,16 +1110,16 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R2">
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1140,31 +1131,31 @@
         <v>33</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE2">
         <v>10</v>
       </c>
       <c r="AF2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG2" t="s">
         <v>47</v>
@@ -1193,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
@@ -1208,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
         <v>43</v>
@@ -1220,13 +1211,13 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R3">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s">
         <v>42</v>
@@ -1238,34 +1229,34 @@
         <v>34</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE3">
         <v>10</v>
       </c>
       <c r="AF3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG3" t="s">
         <v>48</v>
@@ -1282,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>45</v>
@@ -1294,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
         <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
@@ -1309,28 +1300,28 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R4">
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1342,34 +1333,34 @@
         <v>33</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE4">
         <v>4</v>
       </c>
       <c r="AF4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -1383,7 +1374,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>45</v>
@@ -1395,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
@@ -1410,28 +1401,28 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N5" t="s">
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R5">
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1443,34 +1434,34 @@
         <v>33</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE5">
         <v>4</v>
       </c>
       <c r="AF5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -1478,13 +1469,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>45</v>
@@ -1496,10 +1487,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
@@ -1511,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6">
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1544,34 +1535,34 @@
         <v>33</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE6">
         <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -1579,13 +1570,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>45</v>
@@ -1597,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
@@ -1612,28 +1603,28 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N7" t="s">
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R7">
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U7">
         <v>60</v>
@@ -1645,34 +1636,34 @@
         <v>33</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE7">
         <v>4</v>
       </c>
       <c r="AF7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -1686,7 +1677,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>45</v>
@@ -1698,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -1719,22 +1710,22 @@
         <v>43</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8">
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U8">
         <v>60</v>
@@ -1746,34 +1737,34 @@
         <v>36</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE8">
         <v>4</v>
       </c>
       <c r="AF8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -1787,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>45</v>
@@ -1799,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
@@ -1820,22 +1811,22 @@
         <v>43</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R9">
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1847,34 +1838,34 @@
         <v>33</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE9">
         <v>4</v>
       </c>
       <c r="AF9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -1888,7 +1879,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>45</v>
@@ -1900,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -1921,22 +1912,22 @@
         <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10">
         <v>12</v>
       </c>
       <c r="S10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U10">
         <v>60</v>
@@ -1948,34 +1939,34 @@
         <v>36</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE10">
         <v>4</v>
       </c>
       <c r="AF10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -1989,7 +1980,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>45</v>
@@ -2001,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -2022,19 +2013,19 @@
         <v>43</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R11">
         <v>12</v>
       </c>
       <c r="S11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s">
         <v>37</v>
@@ -2049,34 +2040,34 @@
         <v>36</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE11">
         <v>4</v>
       </c>
       <c r="AF11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -2090,7 +2081,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>45</v>
@@ -2102,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
@@ -2123,22 +2114,22 @@
         <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R12">
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U12">
         <v>60</v>
@@ -2150,34 +2141,34 @@
         <v>36</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="Z12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE12">
         <v>4</v>
       </c>
       <c r="AF12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -2191,7 +2182,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>45</v>
@@ -2203,10 +2194,10 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
         <v>46</v>
@@ -2224,22 +2215,22 @@
         <v>43</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U13">
         <v>60</v>
@@ -2251,34 +2242,34 @@
         <v>36</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="Z13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE13">
         <v>4</v>
       </c>
       <c r="AF13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -2292,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>45</v>
@@ -2304,13 +2295,13 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
         <v>84</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" t="s">
-        <v>85</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -2325,22 +2316,22 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R14">
         <v>12</v>
       </c>
       <c r="S14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U14">
         <v>60</v>
@@ -2352,34 +2343,34 @@
         <v>36</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE14">
         <v>4</v>
       </c>
       <c r="AF14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -2393,7 +2384,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>45</v>
@@ -2405,16 +2396,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2426,22 +2417,22 @@
         <v>43</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R15">
         <v>12</v>
       </c>
       <c r="S15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U15">
         <v>60</v>
@@ -2453,34 +2444,34 @@
         <v>36</v>
       </c>
       <c r="X15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="Z15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE15">
         <v>4</v>
       </c>
       <c r="AF15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -2494,7 +2485,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>45</v>
@@ -2506,16 +2497,16 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2527,22 +2518,22 @@
         <v>43</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R16">
         <v>12</v>
       </c>
       <c r="S16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U16">
         <v>60</v>
@@ -2554,34 +2545,34 @@
         <v>36</v>
       </c>
       <c r="X16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="Z16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE16">
         <v>4</v>
       </c>
       <c r="AF16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -2595,7 +2586,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>45</v>
@@ -2607,16 +2598,16 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2628,22 +2619,22 @@
         <v>43</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R17">
         <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U17">
         <v>60</v>
@@ -2655,34 +2646,34 @@
         <v>36</v>
       </c>
       <c r="X17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y17" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="Z17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE17">
         <v>4</v>
       </c>
       <c r="AF17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -2696,7 +2687,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>45</v>
@@ -2708,13 +2699,13 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
         <v>84</v>
-      </c>
-      <c r="I18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" t="s">
-        <v>85</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
@@ -2729,22 +2720,22 @@
         <v>43</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R18">
         <v>12</v>
       </c>
       <c r="S18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U18">
         <v>60</v>
@@ -2756,34 +2747,34 @@
         <v>36</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE18">
         <v>4</v>
       </c>
       <c r="AF18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -2797,7 +2788,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>45</v>
@@ -2809,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" t="s">
         <v>84</v>
-      </c>
-      <c r="I19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" t="s">
-        <v>85</v>
       </c>
       <c r="K19" t="s">
         <v>25</v>
@@ -2830,22 +2821,22 @@
         <v>43</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R19">
         <v>12</v>
       </c>
       <c r="S19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U19">
         <v>60</v>
@@ -2857,34 +2848,34 @@
         <v>36</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE19">
         <v>4</v>
       </c>
       <c r="AF19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -2898,7 +2889,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>45</v>
@@ -2910,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
         <v>84</v>
-      </c>
-      <c r="I20" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" t="s">
-        <v>85</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
@@ -2931,22 +2922,22 @@
         <v>43</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R20">
         <v>12</v>
       </c>
       <c r="S20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U20">
         <v>60</v>
@@ -2958,34 +2949,34 @@
         <v>36</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z20" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE20">
         <v>4</v>
       </c>
       <c r="AF20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -2999,7 +2990,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>45</v>
@@ -3011,13 +3002,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" t="s">
         <v>84</v>
-      </c>
-      <c r="I21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" t="s">
-        <v>85</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
@@ -3032,22 +3023,22 @@
         <v>43</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R21">
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U21">
         <v>60</v>
@@ -3059,34 +3050,34 @@
         <v>36</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE21">
         <v>4</v>
       </c>
       <c r="AF21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
@@ -3100,7 +3091,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>45</v>
@@ -3112,13 +3103,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
         <v>84</v>
-      </c>
-      <c r="I22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" t="s">
-        <v>85</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
@@ -3133,22 +3124,22 @@
         <v>43</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R22">
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U22">
         <v>60</v>
@@ -3160,34 +3151,34 @@
         <v>36</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z22" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE22">
         <v>4</v>
       </c>
       <c r="AF22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -3201,7 +3192,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>45</v>
@@ -3213,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" t="s">
         <v>84</v>
-      </c>
-      <c r="I23" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" t="s">
-        <v>85</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
@@ -3234,22 +3225,22 @@
         <v>43</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R23">
         <v>12</v>
       </c>
       <c r="S23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U23">
         <v>60</v>
@@ -3261,34 +3252,34 @@
         <v>36</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE23">
         <v>4</v>
       </c>
       <c r="AF23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
@@ -3302,7 +3293,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>45</v>
@@ -3314,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" t="s">
         <v>84</v>
-      </c>
-      <c r="I24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" t="s">
-        <v>85</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
@@ -3335,22 +3326,22 @@
         <v>43</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R24">
         <v>12</v>
       </c>
       <c r="S24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U24">
         <v>60</v>
@@ -3362,34 +3353,34 @@
         <v>36</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE24">
         <v>4</v>
       </c>
       <c r="AF24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
@@ -3403,7 +3394,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>45</v>
@@ -3415,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" t="s">
         <v>84</v>
-      </c>
-      <c r="I25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" t="s">
-        <v>85</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
@@ -3436,22 +3427,22 @@
         <v>43</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R25">
         <v>12</v>
       </c>
       <c r="S25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U25">
         <v>60</v>
@@ -3463,34 +3454,34 @@
         <v>36</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE25">
         <v>4</v>
       </c>
       <c r="AF25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
@@ -3504,7 +3495,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>45</v>
@@ -3516,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" t="s">
         <v>84</v>
-      </c>
-      <c r="I26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" t="s">
-        <v>85</v>
       </c>
       <c r="K26" t="s">
         <v>25</v>
@@ -3537,22 +3528,22 @@
         <v>43</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R26">
         <v>12</v>
       </c>
       <c r="S26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U26">
         <v>60</v>
@@ -3564,34 +3555,34 @@
         <v>36</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z26" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE26">
         <v>4</v>
       </c>
       <c r="AF26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
@@ -3605,7 +3596,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>45</v>
@@ -3617,13 +3608,13 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" t="s">
         <v>84</v>
-      </c>
-      <c r="I27" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" t="s">
-        <v>85</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
@@ -3638,22 +3629,22 @@
         <v>43</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R27">
         <v>12</v>
       </c>
       <c r="S27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U27">
         <v>60</v>
@@ -3665,40 +3656,40 @@
         <v>36</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE27">
         <v>4</v>
       </c>
       <c r="AF27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AJ27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s">
         <v>41</v>
